--- a/AccBase_Specification_EN_RUS.xlsx
+++ b/AccBase_Specification_EN_RUS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <sheet name="Account" sheetId="13" r:id="rId16"/>
     <sheet name="Asset" sheetId="48" r:id="rId17"/>
     <sheet name="Unit" sheetId="91" r:id="rId18"/>
-    <sheet name="View" sheetId="462" r:id="rId19"/>
+    <sheet name="ViewData" sheetId="462" r:id="rId19"/>
     <sheet name="_Enum" sheetId="480" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="180">
   <si>
     <t>Договор</t>
   </si>
@@ -568,9 +568,6 @@
     <t>предшественник, основание и т.д.</t>
   </si>
   <si>
-    <t>ViewId</t>
-  </si>
-  <si>
     <t>предшественник, основание, владелец и т.д.</t>
   </si>
   <si>
@@ -593,6 +590,15 @@
   </si>
   <si>
     <t xml:space="preserve">Role    </t>
+  </si>
+  <si>
+    <t>ViewData</t>
+  </si>
+  <si>
+    <t>ViewDataId</t>
+  </si>
+  <si>
+    <t>Журнал</t>
   </si>
 </sst>
 </file>
@@ -790,7 +796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -946,6 +952,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1377,7 +1394,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1650,7 +1667,7 @@
         <v>113</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1859,7 +1876,7 @@
         <v>108</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2088,7 +2105,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -3197,7 +3214,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G23"/>
+  <dimension ref="A2:G34"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -3215,7 +3232,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3325,76 +3342,159 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B17" s="31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="75" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="B18" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="68" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="84" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="78" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="78" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B26" s="42" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B27" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="71" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="78" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="78" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="68" t="s">
+      <c r="B30" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B31" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="76" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B33" s="22" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3419,7 +3519,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -4695,7 +4795,7 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4711,16 +4811,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -4821,10 +4921,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="76" t="s">
         <v>175</v>
-      </c>
-      <c r="B16" s="76" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4896,7 +4996,7 @@
   </sheetPr>
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5029,7 +5129,7 @@
         <v>128</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5042,7 +5142,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="72" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="B18" s="72" t="s">
         <v>144</v>
@@ -5288,7 +5388,9 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5428,7 +5530,7 @@
         <v>128</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="26"/>
@@ -5453,7 +5555,7 @@
     </row>
     <row r="18" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="72" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="B18" s="72" t="s">
         <v>144</v>

--- a/AccBase_Specification_EN_RUS.xlsx
+++ b/AccBase_Specification_EN_RUS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="7" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="AppMeter" sheetId="481" r:id="rId5"/>
     <sheet name="AppMark" sheetId="342" r:id="rId6"/>
     <sheet name="AppSign" sheetId="254" r:id="rId7"/>
-    <sheet name="LogData" sheetId="236" r:id="rId8"/>
-    <sheet name="OperationData" sheetId="30" r:id="rId9"/>
+    <sheet name="Log" sheetId="236" r:id="rId8"/>
+    <sheet name="Operation" sheetId="30" r:id="rId9"/>
     <sheet name="Face" sheetId="41" r:id="rId10"/>
     <sheet name="Price" sheetId="219" r:id="rId11"/>
     <sheet name="Budget" sheetId="98" r:id="rId12"/>
@@ -30,7 +30,7 @@
     <sheet name="Account" sheetId="13" r:id="rId16"/>
     <sheet name="Asset" sheetId="48" r:id="rId17"/>
     <sheet name="Unit" sheetId="91" r:id="rId18"/>
-    <sheet name="ViewData" sheetId="462" r:id="rId19"/>
+    <sheet name="View" sheetId="462" r:id="rId19"/>
     <sheet name="_Enum" sheetId="480" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="177">
   <si>
     <t>Договор</t>
   </si>
@@ -487,15 +487,6 @@
     <t>Attachment</t>
   </si>
   <si>
-    <t>Данные журнала</t>
-  </si>
-  <si>
-    <t>LogData</t>
-  </si>
-  <si>
-    <t>LogDataId</t>
-  </si>
-  <si>
     <t>регистрация отношений, и т.д.</t>
   </si>
   <si>
@@ -535,15 +526,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Данные учетных операций</t>
-  </si>
-  <si>
-    <t>OperationData</t>
-  </si>
-  <si>
-    <t>OperationDataId</t>
-  </si>
-  <si>
     <t>данные цен, скидок, надбавок</t>
   </si>
   <si>
@@ -592,13 +574,22 @@
     <t xml:space="preserve">Role    </t>
   </si>
   <si>
-    <t>ViewData</t>
-  </si>
-  <si>
-    <t>ViewDataId</t>
-  </si>
-  <si>
     <t>Журнал</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>LogId</t>
+  </si>
+  <si>
+    <t>OperationId</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>ViewId</t>
   </si>
 </sst>
 </file>
@@ -1356,18 +1347,18 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1394,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1489,10 +1480,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -1563,18 +1554,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1667,7 +1658,7 @@
         <v>113</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1699,10 +1690,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1774,18 +1765,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="68" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1876,7 +1867,7 @@
         <v>108</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1908,10 +1899,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1932,12 +1923,12 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1989,18 +1980,18 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2105,7 +2096,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -2143,10 +2134,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C21" s="18"/>
     </row>
@@ -2213,10 +2204,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2229,10 +2220,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2322,7 +2313,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2351,10 +2342,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2422,18 +2413,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2557,10 +2548,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -2634,18 +2625,18 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2782,10 +2773,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C21" s="18"/>
     </row>
@@ -2851,18 +2842,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2960,7 +2951,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2992,10 +2983,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C21" s="18"/>
     </row>
@@ -3060,18 +3051,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3183,10 +3174,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C20" s="18"/>
     </row>
@@ -3232,7 +3223,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>177</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3253,18 +3244,18 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3346,7 +3337,7 @@
         <v>128</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -3362,18 +3353,18 @@
         <v>55</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="72" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -3381,7 +3372,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="68" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3442,18 +3433,18 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="78" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B28" s="78" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="42" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -3466,10 +3457,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -3519,7 +3510,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -3540,18 +3531,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3664,10 +3655,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -4069,18 +4060,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -4189,10 +4180,10 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -4254,18 +4245,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -4377,10 +4368,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -4421,15 +4412,15 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -4442,18 +4433,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -4565,19 +4556,19 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="78" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B20" s="78" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4639,18 +4630,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -4762,10 +4753,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C20" s="18"/>
     </row>
@@ -4811,16 +4802,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -4833,18 +4824,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4921,10 +4912,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="76" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4964,10 +4955,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D21" s="18"/>
     </row>
@@ -5011,15 +5002,15 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5032,18 +5023,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5129,7 +5120,7 @@
         <v>128</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5142,10 +5133,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="72" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B18" s="72" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -5153,7 +5144,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -5217,19 +5208,19 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="60" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C27" s="18"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C28" s="27"/>
     </row>
@@ -5244,10 +5235,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C30" s="18"/>
     </row>
@@ -5347,7 +5338,7 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="27" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
@@ -5357,7 +5348,7 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
@@ -5367,12 +5358,12 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5388,9 +5379,7 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5411,15 +5400,15 @@
         <v>8</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="49" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -5432,18 +5421,18 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -5530,7 +5519,7 @@
         <v>128</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="26"/>
@@ -5555,10 +5544,10 @@
     </row>
     <row r="18" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="72" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B18" s="72" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="26"/>
@@ -5572,7 +5561,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="26"/>
@@ -5681,10 +5670,10 @@
     </row>
     <row r="27" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="60" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="26"/>
@@ -5695,10 +5684,10 @@
     </row>
     <row r="28" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="26"/>
@@ -5718,10 +5707,10 @@
     </row>
     <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">

--- a/AccBase_Specification_EN_RUS.xlsx
+++ b/AccBase_Specification_EN_RUS.xlsx
@@ -9,25 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
-    <sheet name="Role" sheetId="273" r:id="rId2"/>
-    <sheet name="Info" sheetId="339" r:id="rId3"/>
-    <sheet name="AppData" sheetId="399" r:id="rId4"/>
-    <sheet name="AppMeter" sheetId="481" r:id="rId5"/>
-    <sheet name="AppMark" sheetId="342" r:id="rId6"/>
-    <sheet name="AppSign" sheetId="254" r:id="rId7"/>
-    <sheet name="Log" sheetId="236" r:id="rId8"/>
-    <sheet name="Operation" sheetId="30" r:id="rId9"/>
-    <sheet name="Face" sheetId="41" r:id="rId10"/>
-    <sheet name="Price" sheetId="219" r:id="rId11"/>
-    <sheet name="Budget" sheetId="98" r:id="rId12"/>
-    <sheet name="Contract" sheetId="89" r:id="rId13"/>
-    <sheet name="Tax" sheetId="93" r:id="rId14"/>
-    <sheet name="Country" sheetId="172" r:id="rId15"/>
-    <sheet name="Account" sheetId="13" r:id="rId16"/>
+    <sheet name="Account" sheetId="13" r:id="rId2"/>
+    <sheet name="AppData" sheetId="399" r:id="rId3"/>
+    <sheet name="AppMeter" sheetId="481" r:id="rId4"/>
+    <sheet name="AppMark" sheetId="342" r:id="rId5"/>
+    <sheet name="AppSign" sheetId="254" r:id="rId6"/>
+    <sheet name="Item" sheetId="98" r:id="rId7"/>
+    <sheet name="Role" sheetId="273" r:id="rId8"/>
+    <sheet name="Info" sheetId="339" r:id="rId9"/>
+    <sheet name="Log" sheetId="236" r:id="rId10"/>
+    <sheet name="Process" sheetId="30" r:id="rId11"/>
+    <sheet name="Face" sheetId="41" r:id="rId12"/>
+    <sheet name="Price" sheetId="219" r:id="rId13"/>
+    <sheet name="Contract" sheetId="89" r:id="rId14"/>
+    <sheet name="Tax" sheetId="93" r:id="rId15"/>
+    <sheet name="Country" sheetId="172" r:id="rId16"/>
     <sheet name="Asset" sheetId="48" r:id="rId17"/>
     <sheet name="Unit" sheetId="91" r:id="rId18"/>
     <sheet name="View" sheetId="462" r:id="rId19"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="176">
   <si>
     <t>Договор</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Бюджет</t>
-  </si>
-  <si>
     <t>FullDescription</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
   </si>
   <si>
     <t>TaxId</t>
-  </si>
-  <si>
-    <t>Операция</t>
   </si>
   <si>
     <t>Актив</t>
@@ -214,9 +208,6 @@
     <t xml:space="preserve">  - сумма и т.д. (можно диапазон суммы "от" и "до")</t>
   </si>
   <si>
-    <t>Движение бюджета</t>
-  </si>
-  <si>
     <t>FaceMasterId</t>
   </si>
   <si>
@@ -385,12 +376,6 @@
     <t>Заполнить, дозаполнить -если уже есть строки</t>
   </si>
   <si>
-    <t>BudgetId</t>
-  </si>
-  <si>
-    <t>Budget</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
@@ -583,13 +568,25 @@
     <t>LogId</t>
   </si>
   <si>
-    <t>OperationId</t>
-  </si>
-  <si>
-    <t>Operation</t>
-  </si>
-  <si>
     <t>ViewId</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Процесс</t>
+  </si>
+  <si>
+    <t>ProcessId</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Статья</t>
+  </si>
+  <si>
+    <t>ItemId</t>
   </si>
 </sst>
 </file>
@@ -787,7 +784,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -905,8 +902,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -953,7 +948,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1271,7 +1265,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -1279,20 +1273,20 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="21"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="67" t="s">
-        <v>138</v>
+      <c r="A5" s="65" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1307,6 +1301,763 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="18"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="26"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="18"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="36"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="18"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="18"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="18"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="18"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="18"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="27"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="18"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="18"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="18"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="64"/>
+      <c r="B33" s="64"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист32">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.42578125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29" style="1" customWidth="1"/>
+    <col min="4" max="14" width="6.7109375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+    </row>
+    <row r="19" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+    </row>
+    <row r="22" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+    </row>
+    <row r="23" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+    </row>
+    <row r="24" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+    </row>
+    <row r="26" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+    </row>
+    <row r="28" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="26"/>
+    </row>
+    <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.19685039370078741" right="0" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист17">
     <pageSetUpPr fitToPage="1"/>
@@ -1323,93 +2074,93 @@
   <sheetData>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>160</v>
+      <c r="A5" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="74" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="74" t="s">
-        <v>17</v>
+      <c r="A9" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>16</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>135</v>
+      <c r="A10" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -1428,18 +2179,18 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1447,43 +2198,43 @@
         <v>1</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>111</v>
+      <c r="A19" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>106</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -1495,10 +2246,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1513,7 +2264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1530,90 +2281,90 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>160</v>
+      <c r="A5" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="56" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>135</v>
+      <c r="A10" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1626,18 +2377,18 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="18"/>
     </row>
@@ -1646,62 +2397,62 @@
         <v>1</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="75" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="75" t="s">
-        <v>113</v>
+      <c r="A17" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>108</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>111</v>
+      <c r="A20" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>106</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1714,231 +2465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:C27"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="68" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" s="68" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="69" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="75" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="18"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="18"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="18"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>158</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1956,7 +2483,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -1972,76 +2499,76 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>160</v>
+      <c r="A5" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>135</v>
+      <c r="A10" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="18"/>
@@ -2058,19 +2585,19 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2078,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -2089,14 +2616,14 @@
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="75" t="s">
-        <v>25</v>
+      <c r="B17" s="73" t="s">
+        <v>24</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -2107,46 +2634,46 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>111</v>
+      <c r="A20" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>106</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2160,7 +2687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2180,10 +2707,10 @@
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -2191,63 +2718,63 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>160</v>
+      <c r="A5" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>135</v>
+      <c r="A10" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>130</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -2258,18 +2785,18 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="33"/>
     </row>
@@ -2283,18 +2810,18 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2302,58 +2829,58 @@
         <v>1</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="75" t="s">
-        <v>27</v>
+      <c r="B17" s="73" t="s">
+        <v>26</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>111</v>
+      <c r="A20" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2367,7 +2894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2384,95 +2911,95 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>160</v>
+      <c r="A5" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>135</v>
+      <c r="A10" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -2485,18 +3012,18 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -2504,15 +3031,15 @@
         <v>1</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="19"/>
@@ -2522,10 +3049,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="19"/>
@@ -2534,11 +3061,11 @@
       <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>111</v>
+      <c r="A19" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>106</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
@@ -2548,10 +3075,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -2561,10 +3088,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2575,227 +3102,6 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист38">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:E23"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="18"/>
-    </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="18"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="18"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-    </row>
-    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="18"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -2818,91 +3124,91 @@
   <sheetData>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>160</v>
+      <c r="A5" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>135</v>
+      <c r="A10" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>130</v>
       </c>
       <c r="C10" s="18"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="32"/>
@@ -2918,19 +3224,19 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="18"/>
     </row>
@@ -2939,63 +3245,63 @@
         <v>1</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="75" t="s">
-        <v>19</v>
+      <c r="A17" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>18</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>111</v>
+      <c r="A20" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>106</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -3027,90 +3333,90 @@
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>160</v>
+      <c r="A5" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>135</v>
+      <c r="A10" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3123,18 +3429,18 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3142,51 +3448,51 @@
         <v>1</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="42" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>111</v>
+      <c r="A19" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>106</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3220,92 +3526,92 @@
   <sheetData>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>160</v>
+      <c r="A5" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>135</v>
+      <c r="A10" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>130</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3318,26 +3624,26 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="81" t="s">
-        <v>128</v>
+      <c r="A16" s="79" t="s">
+        <v>123</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -3345,138 +3651,138 @@
         <v>1</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="58" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B19" s="72" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="66" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="42" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="82" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="84" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="42" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="76" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="75" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="78" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="78" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="42" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="43" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="78" t="s">
-        <v>147</v>
+      <c r="A28" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="76" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="42" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="76" t="s">
-        <v>140</v>
-      </c>
-      <c r="B32" s="76" t="s">
-        <v>141</v>
+      <c r="A32" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="74" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -3491,191 +3797,222 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Лист38">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="18"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="B14" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="18"/>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>23</v>
-      </c>
+      <c r="C16" s="30"/>
       <c r="D16" s="18"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="42" t="s">
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="18"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="18"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="18"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -3694,322 +4031,322 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="47" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="47" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="47" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="47" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="47" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A21" s="47" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="47" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="47" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="47" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="47" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="47" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="47" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="47" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A30" s="47" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="47" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="47" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="47" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A34" s="47" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="47" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="47" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="47" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="47" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="47" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="47" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="47" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="47" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="47" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4018,193 +4355,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:B22"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="33.140625" style="63" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="63" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="63" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="63"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="64" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="65" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4221,90 +4371,90 @@
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>160</v>
+      <c r="A5" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="77" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="77" t="s">
-        <v>135</v>
+      <c r="A10" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -4317,18 +4467,18 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -4336,50 +4486,50 @@
         <v>1</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>111</v>
+      <c r="A19" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>106</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="79" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="79" t="s">
-        <v>131</v>
+      <c r="A21" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="77" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4392,7 +4542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4409,90 +4559,90 @@
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>160</v>
+      <c r="A5" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="80" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="80" t="s">
-        <v>135</v>
+      <c r="A10" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -4505,18 +4655,18 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -4524,59 +4674,59 @@
         <v>1</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="68" t="s">
-        <v>111</v>
+      <c r="A18" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>106</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="B20" s="78" t="s">
-        <v>147</v>
+      <c r="A20" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>142</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="79" t="s">
-        <v>132</v>
-      </c>
-      <c r="B22" s="79" t="s">
-        <v>131</v>
+      <c r="A22" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="77" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -4589,7 +4739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4606,90 +4756,90 @@
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>160</v>
+      <c r="A5" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="80" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="80" t="s">
-        <v>135</v>
+      <c r="A10" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -4702,18 +4852,18 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -4721,51 +4871,51 @@
         <v>1</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>111</v>
+      <c r="A19" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>106</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="79" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="79" t="s">
-        <v>131</v>
+      <c r="A21" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="77" t="s">
+        <v>126</v>
       </c>
       <c r="C21" s="18"/>
     </row>
@@ -4779,7 +4929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4799,91 +4949,91 @@
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>160</v>
+      <c r="A5" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>135</v>
+      <c r="A10" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4896,26 +5046,26 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="76" t="s">
-        <v>168</v>
-      </c>
-      <c r="B16" s="76" t="s">
-        <v>169</v>
+      <c r="A16" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4923,51 +5073,51 @@
         <v>1</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>111</v>
+      <c r="A20" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>106</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D21" s="18"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4977,6 +5127,230 @@
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4985,754 +5359,374 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A2:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="18"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="26"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="18"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="36"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="18"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="18"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="72" t="s">
-        <v>171</v>
-      </c>
-      <c r="B18" s="72" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="18"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="60" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B25" s="15" t="s">
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="18"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="18"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="B27" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="18"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="27"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="18"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C30" s="18"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" s="18"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="66"/>
-      <c r="B33" s="66"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>143</v>
-      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист32">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A2:B22"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" style="55" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="14" width="6.7109375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="33.140625" style="61" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="61" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="61" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="52" t="s">
+      <c r="B14" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="26"/>
-    </row>
-    <row r="15" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-    </row>
-    <row r="16" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-    </row>
-    <row r="18" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="72" t="s">
-        <v>171</v>
-      </c>
-      <c r="B18" s="72" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-    </row>
-    <row r="19" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-    </row>
-    <row r="20" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-    </row>
-    <row r="21" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-    </row>
-    <row r="22" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-    </row>
-    <row r="23" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-    </row>
-    <row r="24" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-    </row>
-    <row r="25" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B25" s="15" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-    </row>
-    <row r="26" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-    </row>
-    <row r="27" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="B27" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-    </row>
-    <row r="28" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-    </row>
-    <row r="29" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="26"/>
-    </row>
-    <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>131</v>
-      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.19685039370078741" right="0" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AccBase_Specification_EN_RUS.xlsx
+++ b/AccBase_Specification_EN_RUS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="Price" sheetId="219" r:id="rId13"/>
     <sheet name="Contract" sheetId="89" r:id="rId14"/>
     <sheet name="Tax" sheetId="93" r:id="rId15"/>
-    <sheet name="Country" sheetId="172" r:id="rId16"/>
+    <sheet name="Geo" sheetId="172" r:id="rId16"/>
     <sheet name="Asset" sheetId="48" r:id="rId17"/>
     <sheet name="Unit" sheetId="91" r:id="rId18"/>
     <sheet name="View" sheetId="462" r:id="rId19"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="176">
   <si>
     <t>Договор</t>
   </si>
@@ -73,9 +73,6 @@
     <t>БухСчет</t>
   </si>
   <si>
-    <t>Страна</t>
-  </si>
-  <si>
     <t>Tax</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>AssetId</t>
   </si>
   <si>
-    <t>CountryId</t>
-  </si>
-  <si>
     <t>DateStartWork</t>
   </si>
   <si>
@@ -113,9 +107,6 @@
   </si>
   <si>
     <t>ContractId</t>
-  </si>
-  <si>
-    <t>Country</t>
   </si>
   <si>
     <t>TaxId</t>
@@ -587,6 +578,15 @@
   </si>
   <si>
     <t>ItemId</t>
+  </si>
+  <si>
+    <t>Гео</t>
+  </si>
+  <si>
+    <t>GeoId</t>
+  </si>
+  <si>
+    <t>Geo</t>
   </si>
 </sst>
 </file>
@@ -666,7 +666,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -686,21 +686,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,7 +769,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -839,16 +824,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -856,7 +839,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -868,7 +851,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -895,11 +878,11 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -908,9 +891,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -918,36 +898,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1265,7 +1235,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -1273,20 +1243,20 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="21"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="65" t="s">
-        <v>133</v>
+      <c r="A5" s="62" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1307,7 +1277,9 @@
   </sheetPr>
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1317,20 +1289,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -1338,76 +1310,76 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>155</v>
+      <c r="A5" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>49</v>
+      <c r="A8" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="67" t="s">
-        <v>130</v>
+      <c r="A10" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="36"/>
+        <v>26</v>
+      </c>
+      <c r="C12" s="34"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
@@ -1420,7 +1392,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>6</v>
@@ -1428,19 +1400,19 @@
       <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>19</v>
+      <c r="A15" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="68" t="s">
-        <v>123</v>
+      <c r="A16" s="65" t="s">
+        <v>120</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1448,23 +1420,23 @@
         <v>1</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" s="70" t="s">
-        <v>168</v>
+      <c r="A18" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="67" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1472,16 +1444,16 @@
         <v>2</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1489,138 +1461,138 @@
         <v>0</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="60" t="s">
-        <v>108</v>
+      <c r="A23" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C25" s="18"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C26" s="18"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27" s="60" t="s">
-        <v>142</v>
+      <c r="A27" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="58" t="s">
+        <v>139</v>
       </c>
       <c r="C27" s="18"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C28" s="27"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
-        <v>43</v>
+      <c r="A29" s="35" t="s">
+        <v>40</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C29" s="18"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C30" s="18"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>136</v>
+      <c r="A31" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>133</v>
       </c>
       <c r="C31" s="18"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="64"/>
-      <c r="B33" s="64"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="61"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1628,62 +1600,62 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1699,11 +1671,13 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" style="55" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" style="53" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="14" width="6.7109375" style="1" customWidth="1"/>
@@ -1711,100 +1685,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
-        <v>86</v>
+      <c r="A1" s="55" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="46" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
-        <v>171</v>
+      <c r="A3" s="47" t="s">
+        <v>168</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>155</v>
+      <c r="A5" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="52" t="s">
-        <v>33</v>
+      <c r="A7" s="50" t="s">
+        <v>30</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="52" t="s">
-        <v>50</v>
+      <c r="A8" s="50" t="s">
+        <v>47</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>16</v>
+      <c r="A9" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="67" t="s">
-        <v>130</v>
+      <c r="A10" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="52" t="s">
-        <v>21</v>
+      <c r="A11" s="50" t="s">
+        <v>19</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>29</v>
+      <c r="A12" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="49" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="17" t="s">
@@ -1812,7 +1786,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -1820,12 +1794,12 @@
       </c>
       <c r="C14" s="26"/>
     </row>
-    <row r="15" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>19</v>
+    <row r="15" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>174</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="26"/>
@@ -1834,12 +1808,12 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="68" t="s">
-        <v>123</v>
+    <row r="16" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="65" t="s">
+        <v>120</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="26"/>
@@ -1848,12 +1822,12 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
     </row>
-    <row r="17" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
+    <row r="17" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>22</v>
+      <c r="B17" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="26"/>
@@ -1862,12 +1836,12 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
     </row>
-    <row r="18" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" s="70" t="s">
-        <v>168</v>
+    <row r="18" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="67" t="s">
+        <v>165</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="26"/>
@@ -1876,12 +1850,12 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
     </row>
-    <row r="19" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="B19" s="66" t="s">
-        <v>172</v>
+    <row r="19" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>169</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="26"/>
@@ -1890,12 +1864,12 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
     </row>
-    <row r="20" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="59" t="s">
-        <v>18</v>
+    <row r="20" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>17</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="26"/>
@@ -1904,12 +1878,12 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
     </row>
-    <row r="21" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="26"/>
@@ -1918,12 +1892,12 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
     </row>
-    <row r="22" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="26"/>
@@ -1932,12 +1906,12 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
     </row>
-    <row r="23" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="58" t="s">
+    <row r="23" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="58" t="s">
-        <v>26</v>
+      <c r="B23" s="56" t="s">
+        <v>23</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="26"/>
@@ -1946,12 +1920,12 @@
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
     </row>
-    <row r="24" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="60" t="s">
-        <v>108</v>
+    <row r="24" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="58" t="s">
+        <v>105</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="26"/>
@@ -1960,12 +1934,12 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
     </row>
-    <row r="25" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="26"/>
@@ -1974,12 +1948,12 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
     </row>
-    <row r="26" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="26"/>
@@ -1988,12 +1962,12 @@
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
     </row>
-    <row r="27" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27" s="60" t="s">
-        <v>142</v>
+    <row r="27" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="58" t="s">
+        <v>139</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="26"/>
@@ -2002,12 +1976,12 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
     </row>
-    <row r="28" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="26"/>
@@ -2016,37 +1990,37 @@
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
     </row>
-    <row r="29" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
-        <v>43</v>
+    <row r="29" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="35" t="s">
+        <v>40</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C29" s="26"/>
     </row>
     <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>136</v>
+      <c r="A31" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2064,7 +2038,9 @@
   </sheetPr>
   <dimension ref="A2:I22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2077,15 +2053,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -2093,74 +2069,74 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>155</v>
+      <c r="A5" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="72" t="s">
-        <v>16</v>
+      <c r="A9" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>15</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="67" t="s">
-        <v>130</v>
+      <c r="A10" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -2186,55 +2162,55 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>19</v>
+      <c r="A15" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>22</v>
+      <c r="B16" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="66" t="s">
-        <v>106</v>
+      <c r="A19" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>103</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -2246,10 +2222,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2271,7 +2247,9 @@
   </sheetPr>
   <dimension ref="A2:C23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2284,15 +2262,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -2300,71 +2278,71 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>155</v>
+      <c r="A5" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>16</v>
+      <c r="A9" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="67" t="s">
-        <v>130</v>
+      <c r="A10" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2384,75 +2362,75 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>19</v>
+      <c r="A15" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>174</v>
       </c>
       <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>22</v>
+      <c r="B16" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="73" t="s">
-        <v>108</v>
+      <c r="A17" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="66" t="s">
-        <v>106</v>
+      <c r="A20" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>103</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2472,7 +2450,9 @@
   </sheetPr>
   <dimension ref="A2:I23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2502,75 +2482,75 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>155</v>
+      <c r="A5" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="67" t="s">
-        <v>130</v>
+      <c r="A10" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="36"/>
+        <v>26</v>
+      </c>
+      <c r="C12" s="34"/>
       <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2593,19 +2573,19 @@
       <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>19</v>
+      <c r="A15" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>22</v>
+      <c r="B16" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -2616,14 +2596,14 @@
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="73" t="s">
-        <v>24</v>
+      <c r="B17" s="70" t="s">
+        <v>22</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -2634,46 +2614,46 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="66" t="s">
-        <v>106</v>
+      <c r="A20" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>103</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2694,7 +2674,9 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2710,7 +2692,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -2718,7 +2700,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -2726,55 +2708,55 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>155</v>
+      <c r="A5" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="67" t="s">
-        <v>130</v>
+      <c r="A10" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>127</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -2785,20 +2767,20 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="33"/>
+        <v>26</v>
+      </c>
+      <c r="C12" s="32"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
@@ -2817,70 +2799,70 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>19</v>
+      <c r="A15" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>22</v>
+      <c r="B16" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="73" t="s">
-        <v>26</v>
+      <c r="B17" s="70" t="s">
+        <v>23</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="66" t="s">
-        <v>106</v>
+      <c r="A20" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2901,7 +2883,9 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2911,7 +2895,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -2919,15 +2903,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>173</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -2935,71 +2919,71 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>155</v>
+      <c r="A5" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
-        <v>13</v>
+      <c r="A9" s="42" t="s">
+        <v>12</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="67" t="s">
-        <v>130</v>
+      <c r="A10" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>29</v>
+      <c r="A12" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3019,27 +3003,27 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>19</v>
+      <c r="A15" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>22</v>
+      <c r="B16" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="19"/>
@@ -3049,10 +3033,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="19"/>
@@ -3061,11 +3045,11 @@
       <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="66" t="s">
-        <v>106</v>
+      <c r="A19" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>103</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
@@ -3075,10 +3059,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -3088,10 +3072,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -3113,7 +3097,9 @@
   </sheetPr>
   <dimension ref="A2:D23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3127,15 +3113,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -3143,75 +3129,75 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>155</v>
+      <c r="A5" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="67" t="s">
-        <v>130</v>
+      <c r="A10" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>127</v>
       </c>
       <c r="C10" s="18"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="32"/>
+      <c r="A12" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
@@ -3232,76 +3218,76 @@
       <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>19</v>
+      <c r="A15" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>174</v>
       </c>
       <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>22</v>
+      <c r="B16" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="73" t="s">
-        <v>18</v>
+      <c r="A17" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>17</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="66" t="s">
-        <v>106</v>
+      <c r="A20" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>103</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -3323,7 +3309,9 @@
   </sheetPr>
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3336,15 +3324,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -3352,71 +3340,71 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>155</v>
+      <c r="A5" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="67" t="s">
-        <v>130</v>
+      <c r="A10" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3436,63 +3424,63 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>19</v>
+      <c r="A15" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>22</v>
+      <c r="B16" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>121</v>
+      <c r="A17" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>118</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>118</v>
+      <c r="A18" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>115</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="66" t="s">
-        <v>106</v>
+      <c r="A19" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>103</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3511,9 +3499,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G34"/>
+  <dimension ref="A2:G25"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3529,15 +3519,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -3545,73 +3535,73 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>155</v>
+      <c r="A5" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>49</v>
+      <c r="A8" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="67" t="s">
-        <v>130</v>
+      <c r="A10" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>127</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3631,163 +3621,91 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>19</v>
+      <c r="A15" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="67" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="42" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="B19" s="70" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="B20" s="66" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="80" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="82" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="73" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="73" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="76" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="76" t="s">
-        <v>143</v>
-      </c>
-      <c r="B28" s="76" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" s="74" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -3802,7 +3720,9 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3820,7 +3740,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -3828,7 +3748,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3836,63 +3756,63 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>155</v>
+      <c r="A5" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
-        <v>13</v>
+      <c r="A9" s="42" t="s">
+        <v>12</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="67" t="s">
-        <v>130</v>
+      <c r="A10" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -3900,10 +3820,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -3928,80 +3848,80 @@
       <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="30"/>
+      <c r="A15" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="29"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="30"/>
+      <c r="B16" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="29"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="30"/>
+        <v>118</v>
+      </c>
+      <c r="C17" s="29"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
     </row>
     <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="30"/>
+        <v>115</v>
+      </c>
+      <c r="C18" s="29"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="66" t="s">
-        <v>106</v>
+      <c r="A20" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -4031,322 +3951,322 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>84</v>
+      <c r="A14" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B20" s="45" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
+    <row r="21" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B21" s="45" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
+    <row r="22" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B23" s="45" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
+    <row r="24" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B24" s="45" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="47" t="s">
+    <row r="25" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B25" s="45" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="47" t="s">
+    <row r="26" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B26" s="45" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="47" t="s">
+    <row r="27" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B27" s="45" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="47" t="s">
+    <row r="28" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B28" s="45" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="47" t="s">
+    <row r="29" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B30" s="45" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="47" t="s">
+    <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B31" s="45" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="47" t="s">
+    <row r="32" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B32" s="45" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="47" t="s">
+    <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B33" s="45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="47" t="s">
+    <row r="34" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="47" t="s">
+      <c r="B34" s="45" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="47" t="s">
+    <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B35" s="45" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="47" t="s">
+    <row r="36" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B36" s="45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="47" t="s">
+    <row r="37" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="47" t="s">
+      <c r="B37" s="45" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
+    <row r="38" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="B38" s="45" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+    <row r="39" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B39" s="45" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="47" t="s">
+    <row r="40" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="47" t="s">
+      <c r="B40" s="45" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="47" t="s">
+    <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="47" t="s">
+      <c r="B41" s="45" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="47" t="s">
+    <row r="42" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="B42" s="45" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="47" t="s">
+    <row r="43" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="47" t="s">
+      <c r="B43" s="45" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="47" t="s">
+    <row r="44" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="47" t="s">
+      <c r="B44" s="45" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="47" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="47" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4361,7 +4281,7 @@
   </sheetPr>
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4374,15 +4294,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -4390,71 +4310,71 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>155</v>
+      <c r="A5" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>16</v>
+      <c r="A9" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="75" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10" s="75" t="s">
-        <v>130</v>
+      <c r="A10" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>29</v>
+      <c r="A12" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -4474,11 +4394,11 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>19</v>
+      <c r="A15" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -4486,50 +4406,50 @@
         <v>1</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="66" t="s">
-        <v>106</v>
+      <c r="A19" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>103</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" s="77" t="s">
-        <v>126</v>
+      <c r="A21" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4549,7 +4469,9 @@
   </sheetPr>
   <dimension ref="A2:C23"/>
   <sheetViews>
-    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0"/>
+    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4562,15 +4484,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -4578,71 +4500,71 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>155</v>
+      <c r="A5" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>16</v>
+      <c r="A9" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="78" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="78" t="s">
-        <v>130</v>
+      <c r="A10" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>29</v>
+      <c r="A12" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -4662,11 +4584,11 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>19</v>
+      <c r="A15" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -4674,59 +4596,59 @@
         <v>1</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="66" t="s">
-        <v>106</v>
+      <c r="A18" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>103</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>118</v>
+      <c r="A19" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>115</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="76" t="s">
-        <v>143</v>
-      </c>
-      <c r="B20" s="76" t="s">
-        <v>142</v>
+      <c r="A20" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="73" t="s">
+        <v>139</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="77" t="s">
-        <v>126</v>
+      <c r="A22" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -4746,7 +4668,9 @@
   </sheetPr>
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4759,15 +4683,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -4775,71 +4699,71 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>155</v>
+      <c r="A5" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>16</v>
+      <c r="A9" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="78" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="78" t="s">
-        <v>130</v>
+      <c r="A10" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>29</v>
+      <c r="A12" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -4859,11 +4783,11 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>19</v>
+      <c r="A15" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -4871,51 +4795,51 @@
         <v>1</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="66" t="s">
-        <v>106</v>
+      <c r="A19" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>103</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" s="77" t="s">
-        <v>126</v>
+      <c r="A21" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>123</v>
       </c>
       <c r="C21" s="18"/>
     </row>
@@ -4936,7 +4860,9 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4952,16 +4878,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -4969,71 +4895,71 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>155</v>
+      <c r="A5" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
-        <v>13</v>
+      <c r="A9" s="42" t="s">
+        <v>12</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="67" t="s">
-        <v>130</v>
+      <c r="A10" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -5053,71 +4979,71 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>19</v>
+      <c r="A15" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="B16" s="74" t="s">
-        <v>164</v>
+      <c r="A16" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="71" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>22</v>
+      <c r="B17" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="66" t="s">
-        <v>106</v>
+      <c r="A20" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>103</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D21" s="18"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -5137,7 +5063,9 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5147,12 +5075,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -5160,15 +5088,15 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -5176,71 +5104,71 @@
         <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="66" t="s">
-        <v>155</v>
+      <c r="A6" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="B11" s="67" t="s">
-        <v>130</v>
+      <c r="A11" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>29</v>
+      <c r="A13" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -5260,73 +5188,73 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>19</v>
+      <c r="A16" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>22</v>
+      <c r="B17" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="73" t="s">
-        <v>174</v>
-      </c>
-      <c r="B18" s="73" t="s">
-        <v>175</v>
+      <c r="A18" s="70" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>172</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="66" t="s">
-        <v>106</v>
+      <c r="A21" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>103</v>
       </c>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -5339,12 +5267,12 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -5361,7 +5289,9 @@
   </sheetPr>
   <dimension ref="A2:D22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5375,15 +5305,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -5391,71 +5321,71 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>155</v>
+      <c r="A5" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>16</v>
+      <c r="A9" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="67" t="s">
-        <v>130</v>
+      <c r="A10" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -5475,63 +5405,63 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>19</v>
+      <c r="A15" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>22</v>
+      <c r="B16" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="D16" s="18"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>121</v>
+      <c r="A17" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>118</v>
       </c>
       <c r="D17" s="18"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D18" s="18"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="66" t="s">
-        <v>106</v>
+      <c r="A19" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>103</v>
       </c>
       <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -5551,14 +5481,16 @@
   </sheetPr>
   <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="61" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="61" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="61" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="61"/>
+    <col min="1" max="1" width="33.140625" style="59" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="59" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="59" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="59"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -5566,15 +5498,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -5582,78 +5514,78 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>155</v>
+      <c r="A5" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>29</v>
+      <c r="A12" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="60" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5666,11 +5598,11 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="63" t="s">
-        <v>19</v>
+      <c r="A15" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -5678,47 +5610,47 @@
         <v>1</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>121</v>
+      <c r="A17" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>118</v>
+      <c r="A18" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="66" t="s">
-        <v>106</v>
+      <c r="A19" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">

--- a/AccBase_Specification_EN_RUS.xlsx
+++ b/AccBase_Specification_EN_RUS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -18,17 +18,17 @@
     <sheet name="AppMeter" sheetId="481" r:id="rId4"/>
     <sheet name="AppMark" sheetId="342" r:id="rId5"/>
     <sheet name="AppSign" sheetId="254" r:id="rId6"/>
-    <sheet name="Item" sheetId="98" r:id="rId7"/>
-    <sheet name="Role" sheetId="273" r:id="rId8"/>
-    <sheet name="Info" sheetId="339" r:id="rId9"/>
-    <sheet name="Log" sheetId="236" r:id="rId10"/>
-    <sheet name="Process" sheetId="30" r:id="rId11"/>
-    <sheet name="Face" sheetId="41" r:id="rId12"/>
-    <sheet name="Price" sheetId="219" r:id="rId13"/>
-    <sheet name="Contract" sheetId="89" r:id="rId14"/>
-    <sheet name="Tax" sheetId="93" r:id="rId15"/>
-    <sheet name="Geo" sheetId="172" r:id="rId16"/>
-    <sheet name="Asset" sheetId="48" r:id="rId17"/>
+    <sheet name="Asset" sheetId="48" r:id="rId7"/>
+    <sheet name="Item" sheetId="98" r:id="rId8"/>
+    <sheet name="Role" sheetId="273" r:id="rId9"/>
+    <sheet name="Info" sheetId="339" r:id="rId10"/>
+    <sheet name="Log" sheetId="236" r:id="rId11"/>
+    <sheet name="Process" sheetId="30" r:id="rId12"/>
+    <sheet name="Face" sheetId="41" r:id="rId13"/>
+    <sheet name="Price" sheetId="219" r:id="rId14"/>
+    <sheet name="Contract" sheetId="89" r:id="rId15"/>
+    <sheet name="Tax" sheetId="93" r:id="rId16"/>
+    <sheet name="Geo" sheetId="172" r:id="rId17"/>
     <sheet name="Unit" sheetId="91" r:id="rId18"/>
     <sheet name="View" sheetId="462" r:id="rId19"/>
     <sheet name="_Enum" sheetId="480" r:id="rId20"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="180">
   <si>
     <t>Договор</t>
   </si>
@@ -310,9 +310,6 @@
     <t>здесь также - подробности выполнения договора (планового, фактического, прогнозного и т.д.)</t>
   </si>
   <si>
-    <t>операции (цепочки операций)</t>
-  </si>
-  <si>
     <t>Перечисления для работы</t>
   </si>
   <si>
@@ -587,6 +584,21 @@
   </si>
   <si>
     <t>Geo</t>
+  </si>
+  <si>
+    <t>Журнал куда</t>
+  </si>
+  <si>
+    <t>LogToId</t>
+  </si>
+  <si>
+    <t>LogFromId</t>
+  </si>
+  <si>
+    <t>Журнал откуда</t>
+  </si>
+  <si>
+    <t>операции (цепочки операций), бизнес-процессы, процессы</t>
   </si>
 </sst>
 </file>
@@ -1251,12 +1263,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1271,6 +1283,195 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:B22"/>
+  <sheetViews>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" style="59" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="59" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="59" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="59"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1289,20 +1490,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -1315,18 +1516,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>151</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1357,10 +1558,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1401,18 +1602,18 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>173</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1425,18 +1626,18 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="67" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>168</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1450,10 +1651,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>171</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1466,10 +1667,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1482,37 +1683,37 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25" s="18"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C26" s="18"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B27" s="58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C27" s="18"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>141</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>142</v>
       </c>
       <c r="C28" s="27"/>
     </row>
@@ -1521,34 +1722,34 @@
         <v>40</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" s="18"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>146</v>
       </c>
       <c r="C30" s="18"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="39" t="s">
         <v>132</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>133</v>
       </c>
       <c r="C31" s="18"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1587,12 +1788,12 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1625,37 +1826,37 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1664,16 +1865,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист32">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1686,7 +1885,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -1694,15 +1893,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -1714,19 +1913,19 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>151</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1755,10 +1954,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1795,11 +1994,11 @@
       <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>173</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>174</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="26"/>
@@ -1810,10 +2009,10 @@
     </row>
     <row r="16" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="26"/>
@@ -1838,10 +2037,10 @@
     </row>
     <row r="18" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="67" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="26"/>
@@ -1851,11 +2050,11 @@
       <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="B19" s="63" t="s">
-        <v>169</v>
+      <c r="A19" s="67" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="67" t="s">
+        <v>176</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="26"/>
@@ -1865,11 +2064,11 @@
       <c r="H19" s="26"/>
     </row>
     <row r="20" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="57" t="s">
-        <v>17</v>
+      <c r="A20" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>168</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="26"/>
@@ -1879,11 +2078,11 @@
       <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>22</v>
+      <c r="A21" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>17</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="26"/>
@@ -1893,11 +2092,11 @@
       <c r="H21" s="26"/>
     </row>
     <row r="22" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>172</v>
+      <c r="A22" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="26"/>
@@ -1907,11 +2106,11 @@
       <c r="H22" s="26"/>
     </row>
     <row r="23" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="56" t="s">
-        <v>23</v>
+      <c r="A23" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="26"/>
@@ -1921,11 +2120,11 @@
       <c r="H23" s="26"/>
     </row>
     <row r="24" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="58" t="s">
-        <v>105</v>
+      <c r="A24" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>23</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="26"/>
@@ -1935,11 +2134,11 @@
       <c r="H24" s="26"/>
     </row>
     <row r="25" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>118</v>
+      <c r="A25" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="58" t="s">
+        <v>104</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="26"/>
@@ -1949,11 +2148,11 @@
       <c r="H25" s="26"/>
     </row>
     <row r="26" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" s="17" t="s">
+      <c r="A26" s="15" t="s">
         <v>115</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="26"/>
@@ -1963,11 +2162,11 @@
       <c r="H26" s="26"/>
     </row>
     <row r="27" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="B27" s="58" t="s">
-        <v>139</v>
+      <c r="A27" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="26"/>
@@ -1977,11 +2176,11 @@
       <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>142</v>
+      <c r="A28" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="58" t="s">
+        <v>138</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="26"/>
@@ -1990,37 +2189,51 @@
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
     </row>
-    <row r="29" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="35" t="s">
+    <row r="29" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+    </row>
+    <row r="30" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="26"/>
-    </row>
-    <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
+      <c r="B30" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="26"/>
+    </row>
+    <row r="31" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="39" t="s">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="B31" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" s="22" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="22" t="s">
         <v>123</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2031,7 +2244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист17">
     <pageSetUpPr fitToPage="1"/>
@@ -2074,18 +2287,18 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>151</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2112,15 +2325,15 @@
         <v>15</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2163,10 +2376,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>173</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2180,19 +2393,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="18"/>
     </row>
@@ -2201,16 +2414,16 @@
         <v>40</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>146</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -2222,10 +2435,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2240,7 +2453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2262,15 +2475,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -2283,18 +2496,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>151</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2323,10 +2536,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2363,10 +2576,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>173</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>174</v>
       </c>
       <c r="C15" s="18"/>
     </row>
@@ -2381,30 +2594,30 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B17" s="70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="18"/>
     </row>
@@ -2413,24 +2626,24 @@
         <v>40</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2443,7 +2656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2487,18 +2700,18 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>151</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2527,10 +2740,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2574,10 +2787,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>173</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2603,7 +2816,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -2614,19 +2827,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="18"/>
     </row>
@@ -2635,25 +2848,25 @@
         <v>40</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>146</v>
       </c>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2667,7 +2880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2713,10 +2926,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>151</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2729,10 +2942,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2753,10 +2966,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -2800,10 +3013,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>173</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2822,23 +3035,23 @@
         <v>23</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2846,23 +3059,23 @@
         <v>40</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2876,7 +3089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2903,15 +3116,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -2924,18 +3137,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>151</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2964,10 +3177,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3004,10 +3217,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>173</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3020,10 +3233,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="19"/>
@@ -3033,10 +3246,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="19"/>
@@ -3049,7 +3262,7 @@
         <v>40</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
@@ -3059,10 +3272,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>146</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -3072,10 +3285,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -3086,218 +3299,6 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист43">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:D23"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="18"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="31"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="18"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="18"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="18"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="18"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="18"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="18"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="18"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" s="18"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3324,7 +3325,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3332,7 +3333,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -3345,18 +3346,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>151</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3385,10 +3386,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3425,10 +3426,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>173</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3441,19 +3442,19 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="18"/>
     </row>
@@ -3462,25 +3463,25 @@
         <v>40</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>146</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3540,18 +3541,18 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>151</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3580,10 +3581,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
@@ -3622,10 +3623,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>173</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -3641,42 +3642,42 @@
         <v>49</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="67" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="63" t="s">
         <v>168</v>
-      </c>
-      <c r="B19" s="63" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3684,23 +3685,23 @@
         <v>40</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -3761,18 +3762,18 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>151</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3801,10 +3802,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3849,10 +3850,10 @@
     </row>
     <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>173</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>174</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="18"/>
@@ -3871,10 +3872,10 @@
     </row>
     <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="18"/>
@@ -3882,10 +3883,10 @@
     </row>
     <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="18"/>
@@ -3893,10 +3894,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3904,24 +3905,24 @@
         <v>40</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>146</v>
       </c>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -3951,74 +3952,74 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>88</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>94</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -4281,7 +4282,7 @@
   </sheetPr>
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4294,15 +4295,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -4315,18 +4316,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>151</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -4355,10 +4356,10 @@
     </row>
     <row r="10" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="72" t="s">
         <v>126</v>
-      </c>
-      <c r="B10" s="72" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -4395,10 +4396,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>173</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -4411,19 +4412,19 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="18"/>
     </row>
@@ -4432,24 +4433,24 @@
         <v>40</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4484,15 +4485,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -4505,18 +4506,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>151</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -4545,10 +4546,10 @@
     </row>
     <row r="10" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -4585,10 +4586,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>173</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -4601,10 +4602,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="18"/>
     </row>
@@ -4613,42 +4614,42 @@
         <v>40</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B20" s="73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B22" s="74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -4683,15 +4684,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -4704,18 +4705,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>151</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -4744,10 +4745,10 @@
     </row>
     <row r="10" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -4784,10 +4785,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>173</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -4800,19 +4801,19 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="18"/>
     </row>
@@ -4821,25 +4822,25 @@
         <v>40</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>146</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C21" s="18"/>
     </row>
@@ -4878,16 +4879,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -4900,18 +4901,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>151</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4940,10 +4941,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4980,18 +4981,18 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>173</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="71" t="s">
         <v>160</v>
-      </c>
-      <c r="B16" s="71" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -5004,19 +5005,19 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="18"/>
     </row>
@@ -5025,25 +5026,25 @@
         <v>40</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>146</v>
       </c>
       <c r="D21" s="18"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -5057,6 +5058,216 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист43">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:D23"/>
+  <sheetViews>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="18"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="31"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="18"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="18"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="18"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="18"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -5075,7 +5286,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -5088,15 +5299,15 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -5109,18 +5320,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="63" t="s">
         <v>151</v>
-      </c>
-      <c r="B6" s="63" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -5149,10 +5360,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -5189,10 +5400,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="40" t="s">
         <v>173</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5205,30 +5416,30 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="70" t="s">
         <v>171</v>
       </c>
-      <c r="B18" s="70" t="s">
-        <v>172</v>
-      </c>
       <c r="C18" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="18"/>
     </row>
@@ -5237,24 +5448,24 @@
         <v>40</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -5267,12 +5478,12 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -5282,7 +5493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -5305,15 +5516,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -5326,18 +5537,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>151</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -5366,10 +5577,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5406,10 +5617,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>173</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -5423,19 +5634,19 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D17" s="18"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D18" s="18"/>
     </row>
@@ -5444,218 +5655,29 @@
         <v>40</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:B22"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="33.140625" style="59" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="59" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="59" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="59"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="60" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="63" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>

--- a/AccBase_Specification_EN_RUS.xlsx
+++ b/AccBase_Specification_EN_RUS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -1478,9 +1478,7 @@
   </sheetPr>
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1872,7 +1870,7 @@
   </sheetPr>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2251,9 +2249,7 @@
   </sheetPr>
   <dimension ref="A2:I22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2460,9 +2456,7 @@
   </sheetPr>
   <dimension ref="A2:C23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2663,9 +2657,7 @@
   </sheetPr>
   <dimension ref="A2:I23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2887,9 +2879,7 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3096,9 +3086,7 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3310,9 +3298,7 @@
   </sheetPr>
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3502,9 +3488,7 @@
   </sheetPr>
   <dimension ref="A2:G25"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3721,9 +3705,7 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4470,9 +4452,7 @@
   </sheetPr>
   <dimension ref="A2:C23"/>
   <sheetViews>
-    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
-    </sheetView>
+    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4669,9 +4649,7 @@
   </sheetPr>
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4861,9 +4839,7 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5274,9 +5250,7 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B16"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/AccBase_Specification_EN_RUS.xlsx
+++ b/AccBase_Specification_EN_RUS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="182">
   <si>
     <t>Договор</t>
   </si>
@@ -599,6 +599,12 @@
   </si>
   <si>
     <t>операции (цепочки операций), бизнес-процессы, процессы</t>
+  </si>
+  <si>
+    <t>Процесс откуда</t>
+  </si>
+  <si>
+    <t>ProcessFromId</t>
   </si>
 </sst>
 </file>
@@ -1870,7 +1876,7 @@
   </sheetPr>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2062,11 +2068,11 @@
       <c r="H19" s="26"/>
     </row>
     <row r="20" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>168</v>
+      <c r="A20" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>181</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="26"/>
@@ -2249,7 +2255,7 @@
   </sheetPr>
   <dimension ref="A2:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/AccBase_Specification_EN_RUS.xlsx
+++ b/AccBase_Specification_EN_RUS.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="184">
   <si>
     <t>Договор</t>
   </si>
@@ -605,6 +605,12 @@
   </si>
   <si>
     <t>ProcessFromId</t>
+  </si>
+  <si>
+    <t>ProcessToId</t>
+  </si>
+  <si>
+    <t>Процесс куда</t>
   </si>
 </sst>
 </file>
@@ -1874,7 +1880,7 @@
   <sheetPr codeName="Лист32">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -2082,11 +2088,11 @@
       <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="57" t="s">
-        <v>17</v>
+      <c r="A21" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>182</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="26"/>
@@ -2096,11 +2102,11 @@
       <c r="H21" s="26"/>
     </row>
     <row r="22" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>22</v>
+      <c r="A22" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>17</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="26"/>
@@ -2110,11 +2116,11 @@
       <c r="H22" s="26"/>
     </row>
     <row r="23" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>171</v>
+      <c r="A23" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="26"/>
@@ -2124,11 +2130,11 @@
       <c r="H23" s="26"/>
     </row>
     <row r="24" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>23</v>
+      <c r="A24" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="26"/>
@@ -2138,11 +2144,11 @@
       <c r="H24" s="26"/>
     </row>
     <row r="25" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="58" t="s">
-        <v>104</v>
+      <c r="A25" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>23</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="26"/>
@@ -2152,11 +2158,11 @@
       <c r="H25" s="26"/>
     </row>
     <row r="26" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>117</v>
+      <c r="A26" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="58" t="s">
+        <v>104</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="26"/>
@@ -2166,11 +2172,11 @@
       <c r="H26" s="26"/>
     </row>
     <row r="27" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>114</v>
+      <c r="A27" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="26"/>
@@ -2180,11 +2186,11 @@
       <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="58" t="s">
-        <v>138</v>
+      <c r="A28" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="26"/>
@@ -2194,11 +2200,11 @@
       <c r="H28" s="26"/>
     </row>
     <row r="29" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>141</v>
+      <c r="A29" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>138</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="26"/>
@@ -2207,36 +2213,50 @@
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
     </row>
-    <row r="30" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="35" t="s">
+    <row r="30" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+    </row>
+    <row r="31" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B31" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="26"/>
-    </row>
-    <row r="31" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
+      <c r="C31" s="26"/>
+    </row>
+    <row r="32" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B32" s="14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="39" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B33" s="39" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B34" s="22" t="s">
         <v>122</v>
       </c>
     </row>

--- a/AccBase_Specification_EN_RUS.xlsx
+++ b/AccBase_Specification_EN_RUS.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="5" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
     <sheet name="Account" sheetId="13" r:id="rId2"/>
-    <sheet name="AppData" sheetId="399" r:id="rId3"/>
-    <sheet name="AppMeter" sheetId="481" r:id="rId4"/>
-    <sheet name="AppMark" sheetId="342" r:id="rId5"/>
-    <sheet name="AppSign" sheetId="254" r:id="rId6"/>
+    <sheet name="AccData" sheetId="399" r:id="rId3"/>
+    <sheet name="Meter" sheetId="481" r:id="rId4"/>
+    <sheet name="Mark" sheetId="342" r:id="rId5"/>
+    <sheet name="Sign" sheetId="254" r:id="rId6"/>
     <sheet name="Asset" sheetId="48" r:id="rId7"/>
     <sheet name="Item" sheetId="98" r:id="rId8"/>
     <sheet name="Role" sheetId="273" r:id="rId9"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="181">
   <si>
     <t>Договор</t>
   </si>
@@ -421,27 +421,12 @@
     <t>Знак</t>
   </si>
   <si>
-    <t>AppMark</t>
-  </si>
-  <si>
-    <t>Отметка приложения</t>
-  </si>
-  <si>
-    <t>AppMarkId</t>
-  </si>
-  <si>
     <t>Отметка</t>
   </si>
   <si>
-    <t>AppData</t>
-  </si>
-  <si>
     <t>Данные приложения</t>
   </si>
   <si>
-    <t>AppDataId</t>
-  </si>
-  <si>
     <t>Данные</t>
   </si>
   <si>
@@ -469,18 +454,6 @@
     <t>данные для штатного расписания с типом "план"</t>
   </si>
   <si>
-    <t>AppMeter</t>
-  </si>
-  <si>
-    <t>Измерители приложения</t>
-  </si>
-  <si>
-    <t>AppMeterId</t>
-  </si>
-  <si>
-    <t>Измеритель приложения</t>
-  </si>
-  <si>
     <t>Значение измерителя</t>
   </si>
   <si>
@@ -535,15 +508,6 @@
     <t>основная, владелец, предшественник, скидка и т.д.</t>
   </si>
   <si>
-    <t>AppSign</t>
-  </si>
-  <si>
-    <t>Знак приложения</t>
-  </si>
-  <si>
-    <t>AppSignId</t>
-  </si>
-  <si>
     <t xml:space="preserve">Role    </t>
   </si>
   <si>
@@ -611,6 +575,33 @@
   </si>
   <si>
     <t>Процесс куда</t>
+  </si>
+  <si>
+    <t>Измерители</t>
+  </si>
+  <si>
+    <t>Meter</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Измеритель</t>
+  </si>
+  <si>
+    <t>MeterId</t>
+  </si>
+  <si>
+    <t>MarkId</t>
+  </si>
+  <si>
+    <t>AccData</t>
+  </si>
+  <si>
+    <t>AccDataId</t>
+  </si>
+  <si>
+    <t>Sign</t>
   </si>
 </sst>
 </file>
@@ -1275,12 +1266,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="62" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1302,7 +1293,7 @@
   <dimension ref="A2:B22"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1339,18 +1330,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1379,10 +1370,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1419,10 +1410,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1459,18 +1450,18 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1505,15 +1496,15 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -1526,18 +1517,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1568,10 +1559,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1612,10 +1603,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1623,7 +1614,7 @@
         <v>119</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1636,18 +1627,18 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="67" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1661,10 +1652,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1711,19 +1702,19 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="58" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="B27" s="58" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="C27" s="18"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C28" s="27"/>
     </row>
@@ -1738,28 +1729,28 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C30" s="18"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C31" s="18"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1836,12 +1827,12 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="27" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
@@ -1851,7 +1842,7 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
@@ -1861,12 +1852,12 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1882,7 +1873,9 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1895,7 +1888,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -1903,15 +1896,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -1924,18 +1917,18 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1964,10 +1957,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2005,10 +1998,10 @@
     </row>
     <row r="15" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="26"/>
@@ -2022,7 +2015,7 @@
         <v>119</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="26"/>
@@ -2047,10 +2040,10 @@
     </row>
     <row r="18" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="67" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="26"/>
@@ -2061,10 +2054,10 @@
     </row>
     <row r="19" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="67" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="26"/>
@@ -2075,10 +2068,10 @@
     </row>
     <row r="20" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="63" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="26"/>
@@ -2089,10 +2082,10 @@
     </row>
     <row r="21" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="63" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="26"/>
@@ -2131,10 +2124,10 @@
     </row>
     <row r="24" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="26"/>
@@ -2201,10 +2194,10 @@
     </row>
     <row r="29" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="58" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="B29" s="58" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="26"/>
@@ -2215,10 +2208,10 @@
     </row>
     <row r="30" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="26"/>
@@ -2238,26 +2231,26 @@
     </row>
     <row r="32" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="39" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2275,7 +2268,9 @@
   </sheetPr>
   <dimension ref="A2:I22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2309,18 +2304,18 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2347,15 +2342,15 @@
         <v>15</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2398,10 +2393,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2442,10 +2437,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -2457,10 +2452,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2516,18 +2511,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2556,10 +2551,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2596,10 +2591,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C15" s="18"/>
     </row>
@@ -2620,7 +2615,7 @@
         <v>104</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2652,18 +2647,18 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2683,7 +2678,9 @@
   </sheetPr>
   <dimension ref="A2:I23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2718,18 +2715,18 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2758,10 +2755,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2805,10 +2802,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2834,7 +2831,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -2872,19 +2869,19 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2942,10 +2939,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2958,10 +2955,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2982,10 +2979,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -3029,10 +3026,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3051,7 +3048,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -3080,18 +3077,18 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -3130,15 +3127,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -3151,18 +3148,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3191,10 +3188,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3231,10 +3228,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3286,10 +3283,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -3299,10 +3296,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -3324,7 +3321,9 @@
   </sheetPr>
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3358,18 +3357,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3398,10 +3397,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3438,10 +3437,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3481,19 +3480,19 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3514,7 +3513,7 @@
   </sheetPr>
   <dimension ref="A2:G25"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3551,18 +3550,18 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3591,10 +3590,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
@@ -3633,10 +3632,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -3652,26 +3651,26 @@
         <v>49</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="67" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="63" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -3700,18 +3699,18 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -3731,7 +3730,9 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3770,18 +3771,18 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3810,10 +3811,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3858,10 +3859,10 @@
     </row>
     <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="18"/>
@@ -3918,19 +3919,19 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -4303,15 +4304,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -4324,18 +4325,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -4364,10 +4365,10 @@
     </row>
     <row r="10" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="72" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -4404,10 +4405,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -4447,18 +4448,18 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="74" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4478,7 +4479,9 @@
   </sheetPr>
   <dimension ref="A2:C23"/>
   <sheetViews>
-    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0"/>
+    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4491,15 +4494,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -4512,18 +4515,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -4552,10 +4555,10 @@
     </row>
     <row r="10" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -4592,10 +4595,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -4635,27 +4638,27 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="73" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="B20" s="73" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="74" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B22" s="74" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -4688,15 +4691,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -4709,18 +4712,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -4749,10 +4752,10 @@
     </row>
     <row r="10" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -4789,10 +4792,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -4832,19 +4835,19 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="74" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="C21" s="18"/>
     </row>
@@ -4865,7 +4868,9 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4881,16 +4886,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -4903,18 +4908,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4943,10 +4948,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4983,18 +4988,18 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="71" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="B16" s="71" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -5034,19 +5039,19 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D21" s="18"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -5101,18 +5106,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -5141,10 +5146,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="C10" s="18"/>
     </row>
@@ -5186,10 +5191,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C15" s="18"/>
     </row>
@@ -5210,7 +5215,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -5242,19 +5247,19 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -5299,15 +5304,15 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -5320,18 +5325,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="63" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -5360,10 +5365,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="64" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -5400,10 +5405,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5416,13 +5421,13 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="70" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B18" s="70" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -5454,18 +5459,18 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -5478,12 +5483,12 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5500,9 +5505,7 @@
   </sheetPr>
   <dimension ref="A2:D22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5516,7 +5519,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -5537,18 +5540,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -5577,10 +5580,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5617,10 +5620,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -5661,18 +5664,18 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">

--- a/AccBase_Specification_EN_RUS.xlsx
+++ b/AccBase_Specification_EN_RUS.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="5" activeTab="18"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
     <sheet name="Account" sheetId="13" r:id="rId2"/>
-    <sheet name="AccData" sheetId="399" r:id="rId3"/>
+    <sheet name="Slice" sheetId="399" r:id="rId3"/>
     <sheet name="Meter" sheetId="481" r:id="rId4"/>
     <sheet name="Mark" sheetId="342" r:id="rId5"/>
     <sheet name="Sign" sheetId="254" r:id="rId6"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="180">
   <si>
     <t>Договор</t>
   </si>
@@ -424,12 +424,6 @@
     <t>Отметка</t>
   </si>
   <si>
-    <t>Данные приложения</t>
-  </si>
-  <si>
-    <t>Данные</t>
-  </si>
-  <si>
     <t>состав договора и одновременно проводки по приходу или расходу склада</t>
   </si>
   <si>
@@ -595,13 +589,16 @@
     <t>MarkId</t>
   </si>
   <si>
-    <t>AccData</t>
-  </si>
-  <si>
-    <t>AccDataId</t>
-  </si>
-  <si>
     <t>Sign</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>Разрез</t>
+  </si>
+  <si>
+    <t>SliceId</t>
   </si>
 </sst>
 </file>
@@ -784,7 +781,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -911,7 +908,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -932,7 +928,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1266,12 +1261,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1293,7 +1288,7 @@
   <dimension ref="A2:B22"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1330,18 +1325,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1369,10 +1364,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="71" t="s">
         <v>179</v>
       </c>
     </row>
@@ -1410,10 +1405,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1441,7 +1436,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="65" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="63" t="s">
@@ -1450,10 +1445,10 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1461,7 +1456,7 @@
         <v>120</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1481,7 +1476,9 @@
   </sheetPr>
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1496,15 +1493,15 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -1517,18 +1514,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1558,10 +1555,10 @@
       <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="64" t="s">
+      <c r="A10" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="71" t="s">
         <v>179</v>
       </c>
     </row>
@@ -1603,14 +1600,14 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="64" t="s">
         <v>119</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -1626,19 +1623,19 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="66" t="s">
         <v>150</v>
-      </c>
-      <c r="B18" s="67" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1652,10 +1649,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1702,19 +1699,19 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="58" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B27" s="58" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C27" s="18"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C28" s="27"/>
     </row>
@@ -1729,19 +1726,19 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C30" s="18"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C31" s="18"/>
     </row>
@@ -1750,7 +1747,7 @@
         <v>120</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1827,12 +1824,12 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
@@ -1842,7 +1839,7 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
@@ -1852,12 +1849,12 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1874,7 +1871,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1888,7 +1885,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -1896,15 +1893,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -1917,18 +1914,18 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1956,10 +1953,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="64" t="s">
+      <c r="A10" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="71" t="s">
         <v>179</v>
       </c>
     </row>
@@ -1998,10 +1995,10 @@
     </row>
     <row r="15" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="26"/>
@@ -2011,7 +2008,7 @@
       <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="64" t="s">
         <v>119</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -2039,11 +2036,11 @@
       <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="67" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" s="67" t="s">
-        <v>165</v>
+      <c r="A18" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>163</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="26"/>
@@ -2053,11 +2050,11 @@
       <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="67" t="s">
-        <v>163</v>
-      </c>
-      <c r="B19" s="67" t="s">
-        <v>164</v>
+      <c r="A19" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>162</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="26"/>
@@ -2068,10 +2065,10 @@
     </row>
     <row r="20" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="63" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="26"/>
@@ -2082,10 +2079,10 @@
     </row>
     <row r="21" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="63" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="26"/>
@@ -2124,10 +2121,10 @@
     </row>
     <row r="24" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="26"/>
@@ -2194,10 +2191,10 @@
     </row>
     <row r="29" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="58" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B29" s="58" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="26"/>
@@ -2208,10 +2205,10 @@
     </row>
     <row r="30" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="26"/>
@@ -2231,18 +2228,18 @@
     </row>
     <row r="32" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="39" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -2250,7 +2247,7 @@
         <v>120</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2269,7 +2266,7 @@
   <dimension ref="A2:I22"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2304,18 +2301,18 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2335,21 +2332,21 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="68" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="64" t="s">
+      <c r="A10" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="71" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2393,10 +2390,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2427,7 +2424,7 @@
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="65" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="63" t="s">
@@ -2437,10 +2434,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -2455,7 +2452,7 @@
         <v>120</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2477,7 +2474,9 @@
   </sheetPr>
   <dimension ref="A2:C23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2511,18 +2510,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2550,10 +2549,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="64" t="s">
+      <c r="A10" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="71" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2591,10 +2590,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C15" s="18"/>
     </row>
@@ -2608,14 +2607,14 @@
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="69" t="s">
         <v>104</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2637,7 +2636,7 @@
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="65" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="63" t="s">
@@ -2647,10 +2646,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2658,7 +2657,7 @@
         <v>120</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2679,7 +2678,7 @@
   <dimension ref="A2:I23"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2715,18 +2714,18 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2754,10 +2753,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="64" t="s">
+      <c r="A10" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="71" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2802,10 +2801,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2824,14 +2823,14 @@
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="69" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -2859,7 +2858,7 @@
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="65" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="63" t="s">
@@ -2869,10 +2868,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C21" s="18"/>
     </row>
@@ -2881,7 +2880,7 @@
         <v>120</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2902,7 +2901,9 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2939,10 +2940,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2955,10 +2956,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2978,10 +2979,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="64" t="s">
+      <c r="A10" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="71" t="s">
         <v>179</v>
       </c>
       <c r="C10" s="18"/>
@@ -3026,10 +3027,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3041,14 +3042,14 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="69" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -3068,7 +3069,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="65" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="63" t="s">
@@ -3077,10 +3078,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3088,7 +3089,7 @@
         <v>120</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -3109,7 +3110,9 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3127,15 +3130,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -3148,18 +3151,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3187,10 +3190,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="64" t="s">
+      <c r="A10" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="71" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3228,10 +3231,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3269,7 +3272,7 @@
       <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="65" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="63" t="s">
@@ -3283,10 +3286,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -3299,7 +3302,7 @@
         <v>120</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -3322,7 +3325,7 @@
   <dimension ref="A2:C22"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3357,18 +3360,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3396,10 +3399,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="64" t="s">
+      <c r="A10" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="71" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3437,10 +3440,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3470,7 +3473,7 @@
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="65" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="63" t="s">
@@ -3480,10 +3483,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C20" s="18"/>
     </row>
@@ -3492,7 +3495,7 @@
         <v>120</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3513,7 +3516,7 @@
   </sheetPr>
   <dimension ref="A2:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3550,18 +3553,18 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3589,10 +3592,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="64" t="s">
+      <c r="A10" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="71" t="s">
         <v>179</v>
       </c>
       <c r="F10" s="18"/>
@@ -3632,10 +3635,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -3651,26 +3654,26 @@
         <v>49</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="66" t="s">
         <v>150</v>
-      </c>
-      <c r="B18" s="67" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -3699,10 +3702,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -3710,7 +3713,7 @@
         <v>120</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -3731,7 +3734,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3771,18 +3774,18 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3810,10 +3813,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="64" t="s">
+      <c r="A10" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="71" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3859,20 +3862,20 @@
     </row>
     <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="67" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="29"/>
@@ -3910,7 +3913,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="65" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="63" t="s">
@@ -3919,10 +3922,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C21" s="18"/>
     </row>
@@ -3931,7 +3934,7 @@
         <v>120</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -4291,7 +4294,7 @@
   </sheetPr>
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4304,15 +4307,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -4325,18 +4328,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -4364,10 +4367,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="72" t="s">
+      <c r="A10" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="71" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4405,10 +4408,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -4438,7 +4441,7 @@
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="65" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="63" t="s">
@@ -4448,18 +4451,18 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="74" t="s">
-        <v>177</v>
+      <c r="B21" s="73" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4480,7 +4483,7 @@
   <dimension ref="A2:C23"/>
   <sheetViews>
     <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4494,15 +4497,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -4515,18 +4518,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -4554,10 +4557,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="75" t="s">
+      <c r="A10" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="71" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4595,10 +4598,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -4619,7 +4622,7 @@
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="65" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="63" t="s">
@@ -4637,28 +4640,28 @@
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="73" t="s">
-        <v>175</v>
-      </c>
-      <c r="B20" s="73" t="s">
-        <v>176</v>
+      <c r="A20" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="72" t="s">
+        <v>174</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="74" t="s">
-        <v>177</v>
+      <c r="B22" s="73" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -4678,7 +4681,9 @@
   </sheetPr>
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4691,7 +4696,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -4699,7 +4704,7 @@
         <v>120</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -4712,18 +4717,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -4751,10 +4756,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="75" t="s">
+      <c r="A10" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="71" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4792,10 +4797,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -4825,7 +4830,7 @@
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="65" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="63" t="s">
@@ -4835,19 +4840,19 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="74" t="s">
-        <v>177</v>
+      <c r="B21" s="73" t="s">
+        <v>175</v>
       </c>
       <c r="C21" s="18"/>
     </row>
@@ -4869,7 +4874,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4886,7 +4891,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D2" s="18"/>
     </row>
@@ -4895,7 +4900,7 @@
         <v>119</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -4908,18 +4913,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4947,10 +4952,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="64" t="s">
+      <c r="A10" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="71" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4988,17 +4993,17 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="70" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5029,7 +5034,7 @@
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="65" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="63" t="s">
@@ -5039,10 +5044,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D21" s="18"/>
     </row>
@@ -5051,7 +5056,7 @@
         <v>120</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -5071,7 +5076,9 @@
   </sheetPr>
   <dimension ref="A2:D23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5106,18 +5113,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -5145,10 +5152,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="64" t="s">
+      <c r="A10" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="71" t="s">
         <v>179</v>
       </c>
       <c r="C10" s="18"/>
@@ -5191,10 +5198,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C15" s="18"/>
     </row>
@@ -5208,14 +5215,14 @@
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="69" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -5237,7 +5244,7 @@
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="65" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="63" t="s">
@@ -5247,10 +5254,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C21" s="18"/>
     </row>
@@ -5259,7 +5266,7 @@
         <v>120</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -5281,7 +5288,9 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5304,15 +5313,15 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -5325,18 +5334,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -5364,10 +5373,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="64" t="s">
+      <c r="A11" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="71" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5405,10 +5414,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5420,14 +5429,14 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="B18" s="70" t="s">
-        <v>159</v>
+      <c r="A18" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>157</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -5449,7 +5458,7 @@
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="65" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="63" t="s">
@@ -5459,10 +5468,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -5470,7 +5479,7 @@
         <v>120</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -5483,12 +5492,12 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5505,7 +5514,9 @@
   </sheetPr>
   <dimension ref="A2:D22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5519,7 +5530,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -5540,18 +5551,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -5579,10 +5590,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="64" t="s">
+      <c r="A10" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="71" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5620,10 +5631,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -5654,7 +5665,7 @@
       <c r="D18" s="18"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="65" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="63" t="s">
@@ -5664,10 +5675,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -5675,7 +5686,7 @@
         <v>120</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">

--- a/AccBase_Specification_EN_RUS.xlsx
+++ b/AccBase_Specification_EN_RUS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="Process" sheetId="30" r:id="rId12"/>
     <sheet name="Face" sheetId="41" r:id="rId13"/>
     <sheet name="Price" sheetId="219" r:id="rId14"/>
-    <sheet name="Contract" sheetId="89" r:id="rId15"/>
+    <sheet name="Deal" sheetId="89" r:id="rId15"/>
     <sheet name="Tax" sheetId="93" r:id="rId16"/>
     <sheet name="Geo" sheetId="172" r:id="rId17"/>
     <sheet name="Unit" sheetId="91" r:id="rId18"/>
@@ -40,9 +40,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="180">
   <si>
-    <t>Договор</t>
-  </si>
-  <si>
     <t>Счет</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
     <t>Наименование</t>
   </si>
   <si>
-    <t>Contract</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -104,9 +98,6 @@
   </si>
   <si>
     <t>Account</t>
-  </si>
-  <si>
-    <t>ContractId</t>
   </si>
   <si>
     <t>TaxId</t>
@@ -599,6 +590,15 @@
   </si>
   <si>
     <t>SliceId</t>
+  </si>
+  <si>
+    <t>Deal</t>
+  </si>
+  <si>
+    <t>Сделка</t>
+  </si>
+  <si>
+    <t>DealId</t>
   </si>
 </sst>
 </file>
@@ -781,7 +781,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -821,9 +821,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1245,7 +1242,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -1253,20 +1250,20 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="21"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="62" t="s">
-        <v>122</v>
+      <c r="A5" s="61" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1293,170 +1290,170 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="59" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="59" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="59" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="59"/>
+    <col min="1" max="1" width="33.140625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="58" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="58"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>140</v>
+      <c r="A5" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>15</v>
+      <c r="A9" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>179</v>
+      <c r="A10" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>26</v>
+      <c r="A12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="59" t="s">
         <v>3</v>
-      </c>
-      <c r="B13" s="60" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>159</v>
+      <c r="A15" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>117</v>
+      <c r="A17" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>114</v>
+      <c r="A18" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="63" t="s">
-        <v>102</v>
+      <c r="A19" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1476,9 +1473,7 @@
   </sheetPr>
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1488,310 +1483,310 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>140</v>
+      <c r="A5" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>46</v>
+      <c r="A8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="26"/>
+      <c r="A9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>179</v>
+      <c r="A10" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="34"/>
+        <v>23</v>
+      </c>
+      <c r="C12" s="33"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>3</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>5</v>
       </c>
       <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>159</v>
+      <c r="A15" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="64" t="s">
-        <v>119</v>
+      <c r="A16" s="63" t="s">
+        <v>116</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" s="66" t="s">
-        <v>150</v>
+      <c r="A18" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>22</v>
+      <c r="A22" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="68" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="58" t="s">
-        <v>104</v>
+      <c r="A23" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C25" s="18"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C26" s="18"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="B27" s="58" t="s">
-        <v>174</v>
+      <c r="A27" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>171</v>
       </c>
       <c r="C27" s="18"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="27"/>
+        <v>127</v>
+      </c>
+      <c r="C28" s="26"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="35" t="s">
-        <v>40</v>
+      <c r="A29" s="34" t="s">
+        <v>37</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C29" s="18"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C30" s="18"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>125</v>
+      <c r="A31" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>122</v>
       </c>
       <c r="C31" s="18"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="61"/>
-      <c r="B33" s="61"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="27" t="s">
-        <v>38</v>
+      <c r="A40" s="26" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="27" t="s">
-        <v>107</v>
+      <c r="A43" s="26" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1799,62 +1794,62 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="27" t="s">
-        <v>126</v>
+      <c r="A53" s="26" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="27" t="s">
-        <v>108</v>
+      <c r="A54" s="26" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1871,12 +1866,12 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B10"/>
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" style="53" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" style="52" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="14" width="6.7109375" style="1" customWidth="1"/>
@@ -1884,370 +1879,370 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
-        <v>165</v>
+      <c r="A1" s="54" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
-        <v>9</v>
-      </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="50" t="s">
-        <v>30</v>
+      <c r="A7" s="49" t="s">
+        <v>27</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
-        <v>47</v>
+      <c r="A8" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="38" t="s">
+      <c r="A9" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="25"/>
+    </row>
+    <row r="15" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="56" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B23" s="68" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="26"/>
-    </row>
-    <row r="15" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-    </row>
-    <row r="16" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B25" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-    </row>
-    <row r="18" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="B18" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-    </row>
-    <row r="19" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="66" t="s">
-        <v>161</v>
-      </c>
-      <c r="B19" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-    </row>
-    <row r="20" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="B20" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-    </row>
-    <row r="21" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="B21" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-    </row>
-    <row r="22" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-    </row>
-    <row r="23" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-    </row>
-    <row r="24" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-    </row>
-    <row r="25" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="56" t="s">
-        <v>23</v>
-      </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-    </row>
-    <row r="26" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="58" t="s">
-        <v>104</v>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>101</v>
       </c>
       <c r="C26" s="18"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-    </row>
-    <row r="27" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-    </row>
-    <row r="28" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C28" s="18"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-    </row>
-    <row r="29" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="B29" s="58" t="s">
-        <v>174</v>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>171</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-    </row>
-    <row r="30" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C30" s="18"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-    </row>
-    <row r="31" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="35" t="s">
-        <v>40</v>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="34" t="s">
+        <v>37</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="26"/>
+        <v>99</v>
+      </c>
+      <c r="C31" s="25"/>
     </row>
     <row r="32" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" s="39" t="s">
-        <v>125</v>
+      <c r="A33" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2277,93 +2272,93 @@
   <sheetData>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>140</v>
+      <c r="A5" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="68" t="s">
-        <v>15</v>
+      <c r="A9" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>13</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>179</v>
+      <c r="A10" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -2374,70 +2369,70 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>3</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>159</v>
+      <c r="A15" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>20</v>
+      <c r="A16" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>18</v>
       </c>
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="63" t="s">
-        <v>102</v>
+      <c r="A19" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>99</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -2449,10 +2444,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2486,178 +2481,178 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>140</v>
+      <c r="A5" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="54" t="s">
-        <v>15</v>
+      <c r="A9" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>179</v>
+      <c r="A10" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>3</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>159</v>
+      <c r="A15" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>156</v>
       </c>
       <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>20</v>
+      <c r="A16" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>18</v>
       </c>
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="69" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="69" t="s">
-        <v>104</v>
+      <c r="A17" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="68" t="s">
+        <v>101</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="63" t="s">
-        <v>102</v>
+      <c r="A20" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>99</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2678,7 +2673,7 @@
   <dimension ref="A2:I23"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B10"/>
+      <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2690,129 +2685,129 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>4</v>
+        <v>178</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>140</v>
+      <c r="A5" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>179</v>
+      <c r="A10" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="34"/>
+        <v>23</v>
+      </c>
+      <c r="C12" s="33"/>
       <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>3</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>5</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>159</v>
+      <c r="A15" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>20</v>
+      <c r="A16" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>18</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -2823,14 +2818,14 @@
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="69" t="s">
-        <v>22</v>
+      <c r="A17" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="68" t="s">
+        <v>179</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -2841,46 +2836,46 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="63" t="s">
-        <v>102</v>
+      <c r="A20" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>99</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2916,74 +2911,74 @@
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>140</v>
+      <c r="A5" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>179</v>
+      <c r="A10" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>176</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -2994,102 +2989,102 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="32"/>
+        <v>23</v>
+      </c>
+      <c r="C12" s="31"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>3</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>159</v>
+      <c r="A15" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B17" s="68" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="69" t="s">
-        <v>23</v>
-      </c>
       <c r="C17" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="63" t="s">
-        <v>102</v>
+      <c r="A20" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -3122,135 +3117,135 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>140</v>
+      <c r="A5" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
-        <v>12</v>
+      <c r="A9" s="41" t="s">
+        <v>10</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>179</v>
+      <c r="A10" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>26</v>
+      <c r="A12" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>3</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>159</v>
+      <c r="A15" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>20</v>
+      <c r="A16" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="19"/>
@@ -3260,10 +3255,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="19"/>
@@ -3272,11 +3267,11 @@
       <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="63" t="s">
-        <v>102</v>
+      <c r="A19" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>99</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
@@ -3286,10 +3281,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -3299,10 +3294,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -3336,166 +3331,166 @@
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>140</v>
+      <c r="A5" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>179</v>
+      <c r="A10" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>159</v>
+      <c r="A15" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>20</v>
+      <c r="A16" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>117</v>
+      <c r="A17" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>114</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>114</v>
+      <c r="A18" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>111</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="63" t="s">
-        <v>102</v>
+      <c r="A19" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>99</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3529,191 +3524,191 @@
   <sheetData>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>140</v>
+      <c r="A5" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>46</v>
+      <c r="A8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>15</v>
+      <c r="A9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>179</v>
+      <c r="A10" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>176</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>3</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>159</v>
+      <c r="A15" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>20</v>
+      <c r="A16" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="56" t="s">
+      <c r="A17" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="62" t="s">
         <v>151</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" s="66" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="B19" s="63" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
-        <v>40</v>
+      <c r="A22" s="34" t="s">
+        <v>37</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -3750,82 +3745,82 @@
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>140</v>
+      <c r="A5" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
-        <v>12</v>
+      <c r="A9" s="41" t="s">
+        <v>10</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>179</v>
+      <c r="A10" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -3833,10 +3828,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -3844,97 +3839,97 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>3</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>5</v>
       </c>
       <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="C15" s="29"/>
+      <c r="A15" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="28"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="29"/>
+      <c r="A16" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="28"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="29"/>
+        <v>114</v>
+      </c>
+      <c r="C17" s="28"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
     </row>
     <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="29"/>
+        <v>111</v>
+      </c>
+      <c r="C18" s="28"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="63" t="s">
-        <v>102</v>
+      <c r="A20" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -3964,322 +3959,322 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>81</v>
+      <c r="A14" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B20" s="44" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="45" t="s">
+    <row r="21" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B21" s="44" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
+    <row r="22" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B23" s="44" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="45" t="s">
+    <row r="24" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B24" s="44" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="45" t="s">
+    <row r="25" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B25" s="44" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="45" t="s">
+    <row r="26" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B26" s="44" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="45" t="s">
+    <row r="27" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B27" s="44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="45" t="s">
+    <row r="28" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B28" s="44" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="45" t="s">
+    <row r="29" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B30" s="44" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="45" t="s">
+    <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B31" s="44" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="45" t="s">
+    <row r="32" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B32" s="44" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="45" t="s">
+    <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B33" s="44" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="45" t="s">
+    <row r="34" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B34" s="44" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="45" t="s">
+    <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B35" s="44" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="45" t="s">
+    <row r="36" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B36" s="44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="45" t="s">
+    <row r="37" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B37" s="44" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="45" t="s">
+    <row r="38" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B38" s="44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="45" t="s">
+    <row r="39" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B39" s="44" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="45" t="s">
+    <row r="40" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B40" s="44" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="45" t="s">
+    <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B41" s="44" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="45" t="s">
+    <row r="42" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B42" s="44" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="45" t="s">
+    <row r="43" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B43" s="44" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="45" t="s">
+    <row r="44" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B44" s="44" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" s="45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" s="45" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -4294,7 +4289,7 @@
   </sheetPr>
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4304,165 +4299,165 @@
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>140</v>
+      <c r="A5" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="54" t="s">
-        <v>15</v>
+      <c r="A9" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>179</v>
+      <c r="A10" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>26</v>
+      <c r="A12" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>3</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>159</v>
+      <c r="A15" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="63" t="s">
-        <v>102</v>
+      <c r="A19" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>99</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="73" t="s">
-        <v>175</v>
+      <c r="A21" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="72" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4494,174 +4489,174 @@
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>140</v>
+      <c r="A5" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="54" t="s">
-        <v>15</v>
+      <c r="A9" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>179</v>
+      <c r="A10" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>26</v>
+      <c r="A12" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>3</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>159</v>
+      <c r="A15" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="63" t="s">
-        <v>102</v>
+      <c r="A18" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>99</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>114</v>
+      <c r="A19" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>111</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="72" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" s="72" t="s">
-        <v>174</v>
+      <c r="A20" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>171</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="73" t="s">
-        <v>175</v>
+      <c r="A22" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="72" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -4693,166 +4688,166 @@
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>140</v>
+      <c r="A5" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="54" t="s">
-        <v>15</v>
+      <c r="A9" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>179</v>
+      <c r="A10" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>26</v>
+      <c r="A12" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>3</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>159</v>
+      <c r="A15" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="63" t="s">
-        <v>102</v>
+      <c r="A19" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>99</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="73" t="s">
-        <v>175</v>
+      <c r="A21" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="72" t="s">
+        <v>172</v>
       </c>
       <c r="C21" s="18"/>
     </row>
@@ -4888,175 +4883,175 @@
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>140</v>
+      <c r="A5" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
-        <v>12</v>
+      <c r="A9" s="41" t="s">
+        <v>10</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>179</v>
+      <c r="A10" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>3</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>159</v>
+      <c r="A15" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="70" t="s">
-        <v>118</v>
+      <c r="A16" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>20</v>
+      <c r="A17" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="63" t="s">
-        <v>102</v>
+      <c r="A20" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>99</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D21" s="18"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -5089,184 +5084,184 @@
   <sheetData>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>140</v>
+      <c r="A5" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>15</v>
+      <c r="A9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>179</v>
+      <c r="A10" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>176</v>
       </c>
       <c r="C10" s="18"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="31"/>
+      <c r="A12" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>3</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>5</v>
       </c>
       <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>159</v>
+      <c r="A15" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>156</v>
       </c>
       <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>20</v>
+      <c r="A16" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>18</v>
       </c>
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="69" t="s">
-        <v>17</v>
+      <c r="A17" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="68" t="s">
+        <v>15</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="63" t="s">
-        <v>102</v>
+      <c r="A20" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>99</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -5300,186 +5295,186 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="63" t="s">
-        <v>140</v>
+      <c r="A6" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="B11" s="71" t="s">
-        <v>179</v>
+      <c r="A11" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>26</v>
+      <c r="A13" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>3</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>159</v>
+      <c r="A16" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>20</v>
+      <c r="A17" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="69" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" s="69" t="s">
-        <v>157</v>
+      <c r="A18" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="68" t="s">
+        <v>154</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="63" t="s">
-        <v>102</v>
+      <c r="A21" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>99</v>
       </c>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -5492,12 +5487,12 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -5527,166 +5522,166 @@
   <sheetData>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>140</v>
+      <c r="A5" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>15</v>
+      <c r="A9" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>179</v>
+      <c r="A10" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>159</v>
+      <c r="A15" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>20</v>
+      <c r="A16" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>18</v>
       </c>
       <c r="D16" s="18"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>117</v>
+      <c r="A17" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>114</v>
       </c>
       <c r="D17" s="18"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D18" s="18"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="63" t="s">
-        <v>102</v>
+      <c r="A19" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>99</v>
       </c>
       <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">

--- a/AccBase_Specification_EN_RUS.xlsx
+++ b/AccBase_Specification_EN_RUS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="4" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -1473,7 +1473,7 @@
   </sheetPr>
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1865,9 +1865,7 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:B23"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3511,7 +3509,7 @@
   </sheetPr>
   <dimension ref="A2:G25"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/AccBase_Specification_EN_RUS.xlsx
+++ b/AccBase_Specification_EN_RUS.xlsx
@@ -490,33 +490,18 @@
     <t>Date2</t>
   </si>
   <si>
-    <t>Name1</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
     <t>Дата1</t>
   </si>
   <si>
     <t>Дата2</t>
   </si>
   <si>
-    <t>Текст</t>
-  </si>
-  <si>
     <t>Лицо1</t>
   </si>
   <si>
     <t>Лицо2</t>
   </si>
   <si>
-    <t>Наименование1</t>
-  </si>
-  <si>
     <t>Инфо</t>
   </si>
   <si>
@@ -533,6 +518,21 @@
   </si>
   <si>
     <t>Процесс1</t>
+  </si>
+  <si>
+    <t>Код</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>Еще</t>
   </si>
 </sst>
 </file>
@@ -715,7 +715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -797,12 +797,8 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -820,9 +816,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1167,7 +1160,7 @@
       <c r="A4" s="18"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="53" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1194,14 +1187,16 @@
   </sheetPr>
   <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="53" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="53" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="53" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="53"/>
+    <col min="1" max="1" width="33.140625" style="51" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="51" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="51" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="51"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -1229,10 +1224,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="54" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1246,7 +1241,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>139</v>
@@ -1254,7 +1249,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>140</v>
@@ -1269,16 +1264,16 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="56" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>141</v>
@@ -1286,26 +1281,26 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B12" s="33" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="54" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>143</v>
+      <c r="B14" s="12" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1334,7 +1329,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>91</v>
@@ -1350,10 +1345,10 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1381,7 +1376,9 @@
   </sheetPr>
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1416,10 +1413,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="54" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1433,7 +1430,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>139</v>
@@ -1442,7 +1439,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>140</v>
@@ -1458,16 +1455,16 @@
       <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="56" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>141</v>
@@ -1476,7 +1473,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>142</v>
@@ -1484,20 +1481,20 @@
       <c r="C12" s="30"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="15"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>143</v>
+      <c r="B14" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="C14" s="15"/>
     </row>
@@ -1510,7 +1507,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="55" t="s">
         <v>94</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -1526,10 +1523,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="57" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1559,18 +1556,18 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="48" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="50" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1593,7 +1590,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>91</v>
@@ -1601,10 +1598,10 @@
       <c r="C26" s="15"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="50" t="s">
         <v>130</v>
       </c>
       <c r="C27" s="15"/>
@@ -1629,10 +1626,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C30" s="15"/>
     </row>
@@ -1641,7 +1638,7 @@
         <v>99</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C31" s="15"/>
     </row>
@@ -1654,8 +1651,8 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="55"/>
-      <c r="B33" s="55"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -1771,11 +1768,13 @@
   <sheetPr codeName="Лист32"/>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" style="47" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" style="45" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="14" width="6.7109375" style="1" customWidth="1"/>
@@ -1783,7 +1782,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="47" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1828,23 +1827,23 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
-        <v>149</v>
+      <c r="A7" s="43" t="s">
+        <v>145</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
-        <v>150</v>
+      <c r="A8" s="43" t="s">
+        <v>146</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="44" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="34" t="s">
@@ -1852,43 +1851,43 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="56" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
-        <v>146</v>
+      <c r="A11" s="43" t="s">
+        <v>143</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
-        <v>147</v>
+      <c r="A12" s="44" t="s">
+        <v>144</v>
       </c>
       <c r="B12" s="34" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>143</v>
+      <c r="B14" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="C14" s="22"/>
     </row>
@@ -1907,7 +1906,7 @@
       <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="55" t="s">
         <v>94</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -1935,10 +1934,10 @@
       <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="57" t="s">
         <v>121</v>
       </c>
       <c r="C18" s="15"/>
@@ -1949,11 +1948,11 @@
       <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" s="60" t="s">
-        <v>154</v>
+      <c r="A19" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>149</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="22"/>
@@ -1978,10 +1977,10 @@
     </row>
     <row r="21" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="22"/>
@@ -1991,10 +1990,10 @@
       <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="49" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="15"/>
@@ -2005,10 +2004,10 @@
       <c r="H22" s="22"/>
     </row>
     <row r="23" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="48" t="s">
         <v>136</v>
       </c>
       <c r="C23" s="15"/>
@@ -2033,10 +2032,10 @@
       <c r="H24" s="22"/>
     </row>
     <row r="25" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="48" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="15"/>
@@ -2047,10 +2046,10 @@
       <c r="H25" s="22"/>
     </row>
     <row r="26" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="50" t="s">
         <v>82</v>
       </c>
       <c r="C26" s="15"/>
@@ -2076,7 +2075,7 @@
     </row>
     <row r="28" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>91</v>
@@ -2089,10 +2088,10 @@
       <c r="H28" s="22"/>
     </row>
     <row r="29" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="50" t="s">
         <v>130</v>
       </c>
       <c r="C29" s="15"/>
@@ -2127,10 +2126,10 @@
     </row>
     <row r="32" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -2138,7 +2137,7 @@
         <v>99</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -2164,7 +2163,9 @@
   </sheetPr>
   <dimension ref="A2:I22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2214,7 +2215,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>139</v>
@@ -2222,17 +2223,17 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="46" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="16" t="s">
@@ -2240,16 +2241,16 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="56" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>141</v>
@@ -2257,7 +2258,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>142</v>
@@ -2270,19 +2271,19 @@
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>143</v>
+      <c r="B14" s="12" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -2313,7 +2314,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>91</v>
@@ -2331,10 +2332,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -2371,7 +2372,9 @@
   </sheetPr>
   <dimension ref="A2:C23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2421,7 +2424,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>139</v>
@@ -2429,31 +2432,31 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="46" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="56" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>141</v>
@@ -2461,26 +2464,26 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>144</v>
+      <c r="A13" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -2502,10 +2505,10 @@
       <c r="C16" s="15"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="48" t="s">
         <v>82</v>
       </c>
       <c r="C17" s="16" t="s">
@@ -2523,7 +2526,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>91</v>
@@ -2541,10 +2544,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2572,7 +2575,9 @@
   </sheetPr>
   <dimension ref="A2:I23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2623,7 +2628,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>139</v>
@@ -2631,7 +2636,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>140</v>
@@ -2646,16 +2651,16 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="56" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>141</v>
@@ -2665,7 +2670,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>142</v>
@@ -2674,21 +2679,21 @@
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>144</v>
+      <c r="A13" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C14" s="15"/>
     </row>
@@ -2716,10 +2721,10 @@
       <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="48" t="s">
         <v>136</v>
       </c>
       <c r="C17" s="16" t="s">
@@ -2743,7 +2748,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>91</v>
@@ -2761,10 +2766,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C21" s="15"/>
     </row>
@@ -2795,7 +2800,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2849,7 +2854,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>139</v>
@@ -2857,7 +2862,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>140</v>
@@ -2872,10 +2877,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="56" t="s">
         <v>134</v>
       </c>
       <c r="C10" s="15"/>
@@ -2887,7 +2892,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>141</v>
@@ -2895,7 +2900,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>142</v>
@@ -2903,19 +2908,19 @@
       <c r="C12" s="28"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>144</v>
+      <c r="A13" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -2935,10 +2940,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="48" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="16" t="s">
@@ -2955,7 +2960,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>91</v>
@@ -2971,10 +2976,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3003,7 +3008,9 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3058,7 +3065,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>139</v>
@@ -3066,7 +3073,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>140</v>
@@ -3081,16 +3088,16 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="56" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>141</v>
@@ -3098,26 +3105,26 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B12" s="37" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>144</v>
+      <c r="A13" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3151,7 +3158,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>91</v>
@@ -3177,10 +3184,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -3215,7 +3222,9 @@
   </sheetPr>
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3265,7 +3274,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>139</v>
@@ -3273,7 +3282,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>140</v>
@@ -3288,16 +3297,16 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="56" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>141</v>
@@ -3305,26 +3314,26 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>144</v>
+      <c r="A13" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3354,7 +3363,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>91</v>
@@ -3372,10 +3381,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C20" s="15"/>
     </row>
@@ -3458,7 +3467,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>139</v>
@@ -3466,7 +3475,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>140</v>
@@ -3481,10 +3490,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="56" t="s">
         <v>134</v>
       </c>
       <c r="F10" s="15"/>
@@ -3492,7 +3501,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>141</v>
@@ -3500,26 +3509,26 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>143</v>
+      <c r="B14" s="12" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3539,10 +3548,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="48" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -3550,10 +3559,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="57" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3575,7 +3584,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>91</v>
@@ -3591,10 +3600,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -3660,10 +3669,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="54" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3677,7 +3686,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>139</v>
@@ -3685,7 +3694,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>140</v>
@@ -3700,16 +3709,16 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="56" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>141</v>
@@ -3720,7 +3729,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>142</v>
@@ -3731,19 +3740,19 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C13" s="15"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C14" s="15"/>
     </row>
@@ -3782,7 +3791,7 @@
     </row>
     <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>91</v>
@@ -3809,10 +3818,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C21" s="15"/>
     </row>
@@ -4181,7 +4190,9 @@
   </sheetPr>
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4214,10 +4225,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="54" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4231,7 +4242,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>139</v>
@@ -4239,31 +4250,31 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="46" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="56" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>141</v>
@@ -4271,26 +4282,26 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B12" s="34" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>144</v>
+      <c r="A13" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -4320,7 +4331,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>91</v>
@@ -4338,10 +4349,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -4369,7 +4380,9 @@
   </sheetPr>
   <dimension ref="A2:C23"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0"/>
+    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4402,10 +4415,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="54" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4419,7 +4432,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>139</v>
@@ -4427,31 +4440,31 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="46" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="56" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>141</v>
@@ -4459,26 +4472,26 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B12" s="34" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>144</v>
+      <c r="A13" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -4517,7 +4530,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>91</v>
@@ -4525,20 +4538,20 @@
       <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="50" t="s">
         <v>130</v>
       </c>
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4566,7 +4579,9 @@
   </sheetPr>
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4599,10 +4614,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="54" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4616,7 +4631,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>139</v>
@@ -4624,31 +4639,31 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="46" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="56" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>141</v>
@@ -4656,7 +4671,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B12" s="34" t="s">
         <v>142</v>
@@ -4664,18 +4679,18 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -4705,7 +4720,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>91</v>
@@ -4723,10 +4738,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C20" s="15"/>
     </row>
@@ -4756,7 +4771,9 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4793,10 +4810,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="54" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4810,7 +4827,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>139</v>
@@ -4818,7 +4835,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>140</v>
@@ -4833,16 +4850,16 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="56" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>141</v>
@@ -4850,7 +4867,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>142</v>
@@ -4858,18 +4875,18 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4907,7 +4924,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>91</v>
@@ -4925,10 +4942,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D21" s="15"/>
     </row>
@@ -4957,7 +4974,9 @@
   </sheetPr>
   <dimension ref="A2:D23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4991,10 +5010,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="54" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5008,7 +5027,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>139</v>
@@ -5016,7 +5035,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>140</v>
@@ -5031,17 +5050,17 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="56" t="s">
         <v>134</v>
       </c>
       <c r="C10" s="15"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>141</v>
@@ -5049,7 +5068,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B12" s="38" t="s">
         <v>142</v>
@@ -5058,20 +5077,20 @@
       <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>144</v>
+      <c r="A13" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="C13" s="15"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C14" s="15"/>
     </row>
@@ -5094,10 +5113,10 @@
       <c r="C16" s="15"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="16" t="s">
@@ -5115,7 +5134,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>91</v>
@@ -5133,10 +5152,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C21" s="15"/>
     </row>
@@ -5167,7 +5186,9 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5210,10 +5231,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="54" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5227,7 +5248,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>139</v>
@@ -5235,7 +5256,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>140</v>
@@ -5250,16 +5271,16 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="56" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>141</v>
@@ -5267,26 +5288,26 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B13" s="37" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>144</v>
+      <c r="A14" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -5306,10 +5327,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="48" t="s">
         <v>124</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -5327,7 +5348,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>91</v>
@@ -5345,10 +5366,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -5391,7 +5412,9 @@
   </sheetPr>
   <dimension ref="A2:D22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5425,10 +5448,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="54" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5442,7 +5465,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>139</v>
@@ -5450,7 +5473,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>140</v>
@@ -5465,16 +5488,16 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="56" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>141</v>
@@ -5482,26 +5505,26 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>143</v>
+      <c r="B14" s="12" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -5532,7 +5555,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>91</v>
@@ -5550,10 +5573,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">

--- a/AccBase_Specification_EN_RUS.xlsx
+++ b/AccBase_Specification_EN_RUS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="4" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="158">
   <si>
     <t>Счет</t>
   </si>
@@ -3412,9 +3412,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G25"/>
+  <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3559,64 +3559,48 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="57" t="s">
-        <v>121</v>
+      <c r="A18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>122</v>
+      <c r="A19" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>93</v>
+      <c r="A20" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>91</v>
+      <c r="A21" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
-        <v>22</v>
+      <c r="A22" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -3631,7 +3615,7 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/AccBase_Specification_EN_RUS.xlsx
+++ b/AccBase_Specification_EN_RUS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="4" activeTab="18"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="7" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -31,14 +31,18 @@
     <sheet name="Geo" sheetId="172" r:id="rId17"/>
     <sheet name="Unit" sheetId="91" r:id="rId18"/>
     <sheet name="View" sheetId="462" r:id="rId19"/>
-    <sheet name="_Enum" sheetId="480" r:id="rId20"/>
+    <sheet name="Module" sheetId="482" r:id="rId20"/>
+    <sheet name="ValueObject" sheetId="485" r:id="rId21"/>
+    <sheet name="Service" sheetId="483" r:id="rId22"/>
+    <sheet name="Entity" sheetId="484" r:id="rId23"/>
+    <sheet name="_Enum" sheetId="480" r:id="rId24"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="188">
   <si>
     <t>Счет</t>
   </si>
@@ -533,6 +537,96 @@
   </si>
   <si>
     <t>Еще</t>
+  </si>
+  <si>
+    <t>Модули</t>
+  </si>
+  <si>
+    <t>FaceDealModule</t>
+  </si>
+  <si>
+    <t>AssetUnitModule</t>
+  </si>
+  <si>
+    <t>RoleInfoModule</t>
+  </si>
+  <si>
+    <t>ViewModule</t>
+  </si>
+  <si>
+    <t>ServiceLayerModule</t>
+  </si>
+  <si>
+    <t>OperationLayerModule</t>
+  </si>
+  <si>
+    <t>TaxModule</t>
+  </si>
+  <si>
+    <t>GeoModule</t>
+  </si>
+  <si>
+    <t>PriceModule</t>
+  </si>
+  <si>
+    <t>ItemModule</t>
+  </si>
+  <si>
+    <t>ProcessLogModule</t>
+  </si>
+  <si>
+    <t>MeterModule</t>
+  </si>
+  <si>
+    <t>AccountSignModule</t>
+  </si>
+  <si>
+    <t>SliceMarkModule</t>
+  </si>
+  <si>
+    <t>ЛицоСделкаМодуль</t>
+  </si>
+  <si>
+    <t>АктивЕдиницаизмеренияМодуль</t>
+  </si>
+  <si>
+    <t>РольИнфоМодуль</t>
+  </si>
+  <si>
+    <t>ВидМодуль</t>
+  </si>
+  <si>
+    <t>СервисныйУровеньМодуль</t>
+  </si>
+  <si>
+    <t>ОперационныйУровеньМодуль</t>
+  </si>
+  <si>
+    <t>НалогМодуль</t>
+  </si>
+  <si>
+    <t>ГеоМодуль</t>
+  </si>
+  <si>
+    <t>ЦенаМодуль</t>
+  </si>
+  <si>
+    <t>СтатьяМодуль</t>
+  </si>
+  <si>
+    <t>ПроцессЛогМодуль</t>
+  </si>
+  <si>
+    <t>ИзмерительМодуль</t>
+  </si>
+  <si>
+    <t>БухсчетЗнакМодуль</t>
+  </si>
+  <si>
+    <t>СрезОтметкаМодуль</t>
+  </si>
+  <si>
+    <t>Module</t>
   </si>
 </sst>
 </file>
@@ -1765,12 +1859,12 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист32"/>
+  <sheetPr codeName="Лист32">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2564,7 +2658,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2788,7 +2882,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2997,7 +3091,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3831,6 +3925,185 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B17"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/AccBase_Specification_EN_RUS.xlsx
+++ b/AccBase_Specification_EN_RUS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_ТЕКУЩАЯ РАБОТА\AccBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C0E14B-978F-4D81-952E-8380329AD35C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="7" activeTab="18"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="772" firstSheet="10" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="190">
   <si>
     <t>Счет</t>
   </si>
@@ -398,12 +399,6 @@
     <t xml:space="preserve">   ---структура калькуляций</t>
   </si>
   <si>
-    <t>Код репликации</t>
-  </si>
-  <si>
-    <t>ReplicationId</t>
-  </si>
-  <si>
     <t>каталог актива, владелец и т.д.</t>
   </si>
   <si>
@@ -627,12 +622,24 @@
   </si>
   <si>
     <t>Module</t>
+  </si>
+  <si>
+    <t>ОбщийМодуль</t>
+  </si>
+  <si>
+    <t>CommonModule</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Ид</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1016,6 +1023,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1051,6 +1075,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1226,7 +1267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -1266,7 +1307,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1275,14 +1316,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:B22"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1319,10 +1360,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1330,23 +1371,23 @@
         <v>105</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1359,34 +1400,34 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1394,15 +1435,15 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1423,7 +1464,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>91</v>
@@ -1439,10 +1480,10 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1450,7 +1491,7 @@
         <v>95</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1464,14 +1505,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1492,10 +1533,10 @@
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -1508,10 +1549,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1519,24 +1560,24 @@
         <v>105</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C7" s="15"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1550,36 +1591,36 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C11" s="15"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" s="30"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>155</v>
       </c>
       <c r="C13" s="15"/>
     </row>
@@ -1588,16 +1629,16 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1605,7 +1646,7 @@
         <v>94</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1618,18 +1659,18 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1643,18 +1684,18 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="48" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1684,7 +1725,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>91</v>
@@ -1693,10 +1734,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="50" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B27" s="50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C27" s="15"/>
     </row>
@@ -1720,10 +1761,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C30" s="15"/>
     </row>
@@ -1732,7 +1773,7 @@
         <v>99</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C31" s="15"/>
     </row>
@@ -1741,7 +1782,7 @@
         <v>95</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1858,13 +1899,15 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Лист32">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1877,7 +1920,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="47" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -1885,15 +1928,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -1906,10 +1949,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1917,23 +1960,23 @@
         <v>105</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="43" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="43" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1946,34 +1989,34 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="44" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1981,16 +2024,16 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="22"/>
@@ -2004,7 +2047,7 @@
         <v>94</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="22"/>
@@ -2029,10 +2072,10 @@
     </row>
     <row r="18" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="22"/>
@@ -2043,10 +2086,10 @@
     </row>
     <row r="19" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="57" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="22"/>
@@ -2057,10 +2100,10 @@
     </row>
     <row r="20" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="22"/>
@@ -2071,10 +2114,10 @@
     </row>
     <row r="21" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="22"/>
@@ -2099,10 +2142,10 @@
     </row>
     <row r="23" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="48" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="22"/>
@@ -2113,10 +2156,10 @@
     </row>
     <row r="24" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="22"/>
@@ -2169,7 +2212,7 @@
     </row>
     <row r="28" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>91</v>
@@ -2183,10 +2226,10 @@
     </row>
     <row r="29" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="50" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="22"/>
@@ -2220,10 +2263,10 @@
     </row>
     <row r="32" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -2231,7 +2274,7 @@
         <v>99</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -2239,7 +2282,7 @@
         <v>95</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2251,14 +2294,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Лист17">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:I22"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2293,10 +2336,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2304,23 +2347,23 @@
         <v>105</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2331,31 +2374,31 @@
         <v>8</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -2366,10 +2409,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2377,15 +2420,15 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2408,7 +2451,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>91</v>
@@ -2426,10 +2469,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -2444,7 +2487,7 @@
         <v>95</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2460,14 +2503,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:C23"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2502,10 +2545,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2513,23 +2556,23 @@
         <v>105</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2542,34 +2585,34 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2577,15 +2620,15 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C15" s="15"/>
     </row>
@@ -2606,7 +2649,7 @@
         <v>82</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2620,7 +2663,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>91</v>
@@ -2638,10 +2681,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2649,7 +2692,7 @@
         <v>95</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2663,14 +2706,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:I23"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2685,15 +2728,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -2706,10 +2749,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2717,23 +2760,23 @@
         <v>105</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2746,38 +2789,38 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>155</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -2787,16 +2830,16 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2816,13 +2859,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="48" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -2842,7 +2885,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>91</v>
@@ -2860,10 +2903,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C21" s="15"/>
     </row>
@@ -2872,7 +2915,7 @@
         <v>95</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2887,14 +2930,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2932,10 +2975,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2943,23 +2986,23 @@
         <v>105</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2972,10 +3015,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -2986,27 +3029,27 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" s="28"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3014,15 +3057,15 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3041,7 +3084,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -3054,7 +3097,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>91</v>
@@ -3070,10 +3113,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3081,7 +3124,7 @@
         <v>95</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -3096,14 +3139,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3122,15 +3165,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -3143,10 +3186,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3154,23 +3197,23 @@
         <v>105</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3183,34 +3226,34 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3218,15 +3261,15 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3252,7 +3295,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>91</v>
@@ -3278,10 +3321,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -3294,7 +3337,7 @@
         <v>95</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -3310,14 +3353,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:C22"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3352,10 +3395,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3363,23 +3406,23 @@
         <v>105</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3392,34 +3435,34 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3427,15 +3470,15 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3457,7 +3500,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>91</v>
@@ -3475,10 +3518,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C20" s="15"/>
     </row>
@@ -3487,7 +3530,7 @@
         <v>95</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3502,13 +3545,15 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3545,10 +3590,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3556,23 +3601,23 @@
         <v>105</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3585,36 +3630,36 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3622,15 +3667,15 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -3649,7 +3694,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -3662,7 +3707,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>91</v>
@@ -3678,10 +3723,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3689,7 +3734,7 @@
         <v>95</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -3703,7 +3748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист38">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3748,10 +3793,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3759,23 +3804,23 @@
         <v>105</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3788,18 +3833,18 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -3807,10 +3852,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -3818,10 +3863,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>155</v>
       </c>
       <c r="C13" s="15"/>
     </row>
@@ -3830,16 +3875,16 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="15"/>
@@ -3869,7 +3914,7 @@
     </row>
     <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>91</v>
@@ -3883,7 +3928,7 @@
         <v>94</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3896,10 +3941,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C21" s="15"/>
     </row>
@@ -3908,7 +3953,7 @@
         <v>95</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -3924,12 +3969,10 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A2:B18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3939,135 +3982,144 @@
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B6" s="11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B7" s="35" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B8" s="21" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B9" s="56" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B10" s="12" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="56" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B11" s="11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B16" s="48" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B17" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4079,7 +4131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4091,7 +4143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4103,7 +4155,10 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4436,20 +4491,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.15748031496062992" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4462,15 +4516,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -4483,10 +4537,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -4494,23 +4548,23 @@
         <v>105</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -4523,34 +4577,34 @@
     </row>
     <row r="10" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -4558,15 +4612,15 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -4588,7 +4642,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>91</v>
@@ -4606,10 +4660,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -4617,7 +4671,7 @@
         <v>95</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4631,14 +4685,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:C23"/>
   <sheetViews>
     <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4652,15 +4706,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -4673,10 +4727,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -4689,18 +4743,18 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -4713,34 +4767,34 @@
     </row>
     <row r="10" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -4748,15 +4802,15 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -4787,7 +4841,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>91</v>
@@ -4796,19 +4850,19 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="50" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4816,7 +4870,7 @@
         <v>95</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -4830,15 +4884,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4851,7 +4903,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -4859,7 +4911,7 @@
         <v>95</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -4872,10 +4924,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -4883,23 +4935,23 @@
         <v>105</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -4912,34 +4964,34 @@
     </row>
     <row r="10" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -4947,15 +4999,15 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -4977,7 +5029,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>91</v>
@@ -4995,10 +5047,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C20" s="15"/>
     </row>
@@ -5007,7 +5059,7 @@
         <v>95</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C21" s="15"/>
     </row>
@@ -5022,14 +5074,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5046,7 +5098,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D2" s="15"/>
     </row>
@@ -5055,7 +5107,7 @@
         <v>94</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -5068,10 +5120,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5079,23 +5131,23 @@
         <v>105</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5108,34 +5160,34 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -5143,15 +5195,15 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -5159,7 +5211,7 @@
         <v>94</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -5181,7 +5233,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>91</v>
@@ -5199,10 +5251,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D21" s="15"/>
     </row>
@@ -5211,7 +5263,7 @@
         <v>95</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -5225,14 +5277,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Лист43">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:D23"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5268,10 +5320,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5279,23 +5331,23 @@
         <v>105</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5308,37 +5360,37 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10" s="15"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>155</v>
       </c>
       <c r="C13" s="15"/>
     </row>
@@ -5347,16 +5399,16 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C15" s="15"/>
     </row>
@@ -5377,7 +5429,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -5391,7 +5443,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>91</v>
@@ -5409,10 +5461,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C21" s="15"/>
     </row>
@@ -5421,7 +5473,7 @@
         <v>95</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -5437,14 +5489,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5468,15 +5520,15 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -5489,10 +5541,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="54" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -5500,23 +5552,23 @@
         <v>105</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -5529,34 +5581,34 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -5564,15 +5616,15 @@
         <v>2</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5585,13 +5637,13 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -5605,7 +5657,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>91</v>
@@ -5623,10 +5675,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -5634,7 +5686,7 @@
         <v>95</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -5663,14 +5715,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:D22"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5685,7 +5737,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -5706,10 +5758,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5717,23 +5769,23 @@
         <v>105</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5746,34 +5798,34 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -5781,15 +5833,15 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -5812,7 +5864,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>91</v>
@@ -5830,10 +5882,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -5841,7 +5893,7 @@
         <v>95</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">

--- a/AccBase_Specification_EN_RUS.xlsx
+++ b/AccBase_Specification_EN_RUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_ТЕКУЩАЯ РАБОТА\AccBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C0E14B-978F-4D81-952E-8380329AD35C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D057D2B-C60C-4055-BBC4-E1037C83C1BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="772" firstSheet="10" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19770" windowHeight="11760" tabRatio="772" firstSheet="10" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="191">
   <si>
     <t>Счет</t>
   </si>
@@ -153,9 +153,6 @@
     <t>ДАННЫЕ О ПРОЕКТЕ ACCBASE</t>
   </si>
   <si>
-    <t>Представление</t>
-  </si>
-  <si>
     <t>View</t>
   </si>
   <si>
@@ -634,6 +631,12 @@
   </si>
   <si>
     <t>Ид</t>
+  </si>
+  <si>
+    <t>Отчет</t>
+  </si>
+  <si>
+    <t>Report</t>
   </si>
 </sst>
 </file>
@@ -1296,12 +1299,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1339,15 +1342,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -1360,34 +1363,34 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1400,34 +1403,34 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1435,15 +1438,15 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1456,18 +1459,18 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1475,23 +1478,23 @@
         <v>22</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1523,20 +1526,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -1549,35 +1552,35 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" s="15"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1591,36 +1594,36 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="15"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="30"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" s="15"/>
     </row>
@@ -1629,24 +1632,24 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1659,18 +1662,18 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="57" t="s">
         <v>118</v>
-      </c>
-      <c r="B18" s="57" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1684,26 +1687,26 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1716,37 +1719,37 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="C25" s="15"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" s="15"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B27" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C27" s="15"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="C28" s="23"/>
     </row>
@@ -1755,34 +1758,34 @@
         <v>22</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="15"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C30" s="15"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C31" s="15"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1806,7 +1809,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1821,12 +1824,12 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1859,37 +1862,37 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1920,7 +1923,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -1928,15 +1931,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -1949,34 +1952,34 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1989,34 +1992,34 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2024,16 +2027,16 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>125</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="22"/>
@@ -2044,10 +2047,10 @@
     </row>
     <row r="16" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="22"/>
@@ -2072,10 +2075,10 @@
     </row>
     <row r="18" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="57" t="s">
         <v>118</v>
-      </c>
-      <c r="B18" s="57" t="s">
-        <v>119</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="22"/>
@@ -2086,10 +2089,10 @@
     </row>
     <row r="19" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="22"/>
@@ -2100,10 +2103,10 @@
     </row>
     <row r="20" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="22"/>
@@ -2114,10 +2117,10 @@
     </row>
     <row r="21" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="22"/>
@@ -2142,10 +2145,10 @@
     </row>
     <row r="23" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="22"/>
@@ -2156,10 +2159,10 @@
     </row>
     <row r="24" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="22"/>
@@ -2184,10 +2187,10 @@
     </row>
     <row r="26" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="22"/>
@@ -2198,10 +2201,10 @@
     </row>
     <row r="27" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="22"/>
@@ -2212,10 +2215,10 @@
     </row>
     <row r="28" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="22"/>
@@ -2226,10 +2229,10 @@
     </row>
     <row r="29" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="22"/>
@@ -2240,10 +2243,10 @@
     </row>
     <row r="30" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="22"/>
@@ -2257,32 +2260,32 @@
         <v>22</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2336,34 +2339,34 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2374,31 +2377,31 @@
         <v>8</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -2409,10 +2412,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2420,15 +2423,15 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2442,19 +2445,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="C17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="15"/>
     </row>
@@ -2463,16 +2466,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -2484,10 +2487,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2524,15 +2527,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -2545,34 +2548,34 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2585,34 +2588,34 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2620,15 +2623,15 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>125</v>
       </c>
       <c r="C15" s="15"/>
     </row>
@@ -2643,30 +2646,30 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="15"/>
     </row>
@@ -2675,24 +2678,24 @@
         <v>22</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2728,15 +2731,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -2749,34 +2752,34 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2789,38 +2792,38 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -2830,16 +2833,16 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2859,13 +2862,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -2876,19 +2879,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="15"/>
     </row>
@@ -2897,25 +2900,25 @@
         <v>22</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C21" s="15"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2975,34 +2978,34 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3015,10 +3018,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -3029,27 +3032,27 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="28"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3057,15 +3060,15 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3084,23 +3087,23 @@
         <v>6</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -3108,23 +3111,23 @@
         <v>22</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -3165,15 +3168,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -3186,34 +3189,34 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3226,34 +3229,34 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3261,15 +3264,15 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3282,10 +3285,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
@@ -3295,10 +3298,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
@@ -3311,7 +3314,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
@@ -3321,10 +3324,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -3334,10 +3337,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -3374,7 +3377,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3382,7 +3385,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -3395,34 +3398,34 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3435,34 +3438,34 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3470,15 +3473,15 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3491,19 +3494,19 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="C17" s="15"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="15"/>
     </row>
@@ -3512,25 +3515,25 @@
         <v>22</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3551,9 +3554,7 @@
   </sheetPr>
   <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3569,15 +3570,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>29</v>
+        <v>189</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -3590,34 +3591,34 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3630,36 +3631,36 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3667,15 +3668,15 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -3688,29 +3689,29 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="48" t="s">
-        <v>29</v>
+        <v>189</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -3718,23 +3719,23 @@
         <v>22</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -3793,34 +3794,34 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3833,18 +3834,18 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -3852,10 +3853,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -3863,10 +3864,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" s="15"/>
     </row>
@@ -3875,16 +3876,16 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>125</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="15"/>
@@ -3903,10 +3904,10 @@
     </row>
     <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="15"/>
@@ -3914,10 +3915,10 @@
     </row>
     <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="15"/>
@@ -3925,10 +3926,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3936,24 +3937,24 @@
         <v>22</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C21" s="15"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -3982,130 +3983,130 @@
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="48" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -4172,322 +4173,322 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="15" t="s">
         <v>73</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A21" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A30" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A34" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4516,15 +4517,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -4537,34 +4538,34 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -4577,34 +4578,34 @@
     </row>
     <row r="10" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -4612,15 +4613,15 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -4633,19 +4634,19 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="C17" s="15"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="15"/>
     </row>
@@ -4654,24 +4655,24 @@
         <v>22</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4706,15 +4707,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -4727,34 +4728,34 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -4767,34 +4768,34 @@
     </row>
     <row r="10" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -4802,15 +4803,15 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -4823,10 +4824,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="C17" s="15"/>
     </row>
@@ -4835,42 +4836,42 @@
         <v>22</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -4903,15 +4904,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -4924,34 +4925,34 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -4964,34 +4965,34 @@
     </row>
     <row r="10" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -4999,15 +5000,15 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -5020,19 +5021,19 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="C17" s="15"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="15"/>
     </row>
@@ -5041,25 +5042,25 @@
         <v>22</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C21" s="15"/>
     </row>
@@ -5098,16 +5099,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -5120,34 +5121,34 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5160,34 +5161,34 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -5195,23 +5196,23 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -5224,19 +5225,19 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="15"/>
     </row>
@@ -5245,25 +5246,25 @@
         <v>22</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D21" s="15"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -5320,34 +5321,34 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5360,37 +5361,37 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="15"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" s="15"/>
     </row>
@@ -5399,16 +5400,16 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>125</v>
       </c>
       <c r="C15" s="15"/>
     </row>
@@ -5429,24 +5430,24 @@
         <v>11</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="15"/>
     </row>
@@ -5455,25 +5456,25 @@
         <v>22</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C21" s="15"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -5507,7 +5508,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -5520,15 +5521,15 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -5541,34 +5542,34 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -5581,34 +5582,34 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -5616,15 +5617,15 @@
         <v>2</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5637,30 +5638,30 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="15"/>
     </row>
@@ -5669,24 +5670,24 @@
         <v>22</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="15"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -5699,12 +5700,12 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -5737,15 +5738,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -5758,34 +5759,34 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5798,34 +5799,34 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -5833,15 +5834,15 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -5855,19 +5856,19 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="15"/>
     </row>
@@ -5876,24 +5877,24 @@
         <v>22</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">

--- a/AccBase_Specification_EN_RUS.xlsx
+++ b/AccBase_Specification_EN_RUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_ТЕКУЩАЯ РАБОТА\AccBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F0E4E0-B387-4DFF-8D68-AB21F89C1102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8C60F6-AE1C-4692-915C-7B23045A1F08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19770" windowHeight="11760" tabRatio="772" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19770" windowHeight="11760" tabRatio="772" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -1286,7 +1286,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -1809,9 +1809,7 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2586,9 +2584,7 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2661,7 +2657,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3378,7 +3374,7 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5367,7 +5363,7 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
